--- a/Test_sheet.xlsx
+++ b/Test_sheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Thesis\MT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1343767-F9E8-4518-B566-44AE2BEFA3C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B13EA6-FCF5-4E35-930B-A117789DE6A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tests" sheetId="1" r:id="rId1"/>
+    <sheet name="Test plan" sheetId="2" r:id="rId1"/>
+    <sheet name="Tests" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Sheet for entering test data</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -42,12 +40,6 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>Belt tension Motor</t>
-  </si>
-  <si>
-    <t>Belt tension Compressor</t>
-  </si>
-  <si>
     <t>Variables</t>
   </si>
   <si>
@@ -58,6 +50,108 @@
   </si>
   <si>
     <t>Speed(RPM)</t>
+  </si>
+  <si>
+    <t>Belt tension Motor(Pound-force)</t>
+  </si>
+  <si>
+    <t>Belt tension Compressor(Pound-force)</t>
+  </si>
+  <si>
+    <t>VFD Frequency(Hz)</t>
+  </si>
+  <si>
+    <t>Speed(RPM)[800,1300,1800]</t>
+  </si>
+  <si>
+    <t>Belt tension Motor[</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Belt tension Motor low</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>2018-04-20 , 13:48</t>
+  </si>
+  <si>
+    <t>2018-04-20 , 14:05</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>20.2</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>20.6</t>
+  </si>
+  <si>
+    <t>20.7</t>
+  </si>
+  <si>
+    <t>20.8</t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>2018-04-20,14:18</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>23.6</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>2018-04-20,14:33</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>21.9</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
   </si>
 </sst>
 </file>
@@ -88,15 +182,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -104,14 +204,220 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,62 +731,1987 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ADE930-95F2-4FE7-8425-1D0ED343DBA9}">
-  <dimension ref="B2:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16207D0F-B440-437E-AAF5-9FEB6DAE841A}">
+  <dimension ref="A3:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>1</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="25">
+        <v>225</v>
+      </c>
+      <c r="D6" s="26">
+        <v>800</v>
+      </c>
+      <c r="E6" s="27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" t="s">
-        <v>6</v>
-      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="18">
+        <v>190</v>
+      </c>
+      <c r="D16" s="18">
+        <v>800</v>
+      </c>
+      <c r="E16" s="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7">
+        <v>1300</v>
+      </c>
+      <c r="E19" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7">
+        <v>1800</v>
+      </c>
+      <c r="E22" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>18</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ADE930-95F2-4FE7-8425-1D0ED343DBA9}">
+  <dimension ref="B2:V61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>225</v>
+      </c>
+      <c r="F6" s="7">
+        <v>800</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>225</v>
+      </c>
+      <c r="F7" s="7">
+        <v>800</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>225</v>
+      </c>
+      <c r="F8" s="7">
+        <v>800</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D9" s="8">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6">
+        <v>225</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1300</v>
+      </c>
+      <c r="G9" s="21">
+        <v>18</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="22">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6">
+        <v>225</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1300</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="22">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D11" s="8">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6">
+        <v>225</v>
+      </c>
+      <c r="F11" s="21">
+        <v>1300</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6">
+        <v>225</v>
+      </c>
+      <c r="F12" s="21">
+        <v>1800</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8">
+        <v>13</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8">
+        <v>14</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8">
+        <v>16</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8">
+        <v>18</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="29" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" t="s">
+        <v>40</v>
+      </c>
+      <c r="U29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>23.6</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>18.2</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>20.3</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>22</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>5.5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31">
+        <v>0.5</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="L31">
+        <v>18.5</v>
+      </c>
+      <c r="N31">
+        <v>0.5</v>
+      </c>
+      <c r="O31">
+        <v>20.7</v>
+      </c>
+      <c r="Q31">
+        <v>0.5</v>
+      </c>
+      <c r="S31">
+        <v>0.5</v>
+      </c>
+      <c r="T31">
+        <v>19.3</v>
+      </c>
+      <c r="U31">
+        <v>0.5</v>
+      </c>
+      <c r="V31">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>16.8</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>21.2</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>16.8</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>6.5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33">
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <v>1.5</v>
+      </c>
+      <c r="I33">
+        <v>19.5</v>
+      </c>
+      <c r="K33">
+        <v>1.5</v>
+      </c>
+      <c r="L33">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N33">
+        <v>1.5</v>
+      </c>
+      <c r="O33">
+        <v>22</v>
+      </c>
+      <c r="Q33">
+        <v>1.5</v>
+      </c>
+      <c r="R33">
+        <v>19.5</v>
+      </c>
+      <c r="S33">
+        <v>1.5</v>
+      </c>
+      <c r="T33">
+        <v>19.8</v>
+      </c>
+      <c r="U33">
+        <v>1.5</v>
+      </c>
+      <c r="V33">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>22.4</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>19.5</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>19.8</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>22</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="R34">
+        <v>18.2</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>19.8</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>7.5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>2.5</v>
+      </c>
+      <c r="F35">
+        <v>22.4</v>
+      </c>
+      <c r="H35">
+        <v>2.5</v>
+      </c>
+      <c r="I35">
+        <v>19</v>
+      </c>
+      <c r="K35">
+        <v>2.5</v>
+      </c>
+      <c r="L35">
+        <v>19.8</v>
+      </c>
+      <c r="N35">
+        <v>2.5</v>
+      </c>
+      <c r="O35">
+        <v>22.3</v>
+      </c>
+      <c r="Q35">
+        <v>2.5</v>
+      </c>
+      <c r="R35">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="S35">
+        <v>2.5</v>
+      </c>
+      <c r="T35">
+        <v>19.8</v>
+      </c>
+      <c r="U35">
+        <v>2.5</v>
+      </c>
+      <c r="V35">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>22.8</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>20.2</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>22.4</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>18.5</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
+      </c>
+      <c r="T36">
+        <v>20.2</v>
+      </c>
+      <c r="U36">
+        <v>3</v>
+      </c>
+      <c r="V36">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>8.5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37">
+        <v>3.5</v>
+      </c>
+      <c r="F37">
+        <v>22.8</v>
+      </c>
+      <c r="H37">
+        <v>3.5</v>
+      </c>
+      <c r="K37">
+        <v>3.5</v>
+      </c>
+      <c r="L37">
+        <v>20.2</v>
+      </c>
+      <c r="N37">
+        <v>3.5</v>
+      </c>
+      <c r="O37">
+        <v>22.8</v>
+      </c>
+      <c r="Q37">
+        <v>3.5</v>
+      </c>
+      <c r="R37">
+        <v>18.5</v>
+      </c>
+      <c r="S37">
+        <v>3.5</v>
+      </c>
+      <c r="T37">
+        <v>20.2</v>
+      </c>
+      <c r="U37">
+        <v>3.5</v>
+      </c>
+      <c r="V37">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>22.9</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>18.5</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>20.3</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="O38">
+        <v>22.8</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>20.2</v>
+      </c>
+      <c r="U38">
+        <v>4</v>
+      </c>
+      <c r="V38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>9.5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39">
+        <v>4.5</v>
+      </c>
+      <c r="F39">
+        <v>23.2</v>
+      </c>
+      <c r="H39">
+        <v>4.5</v>
+      </c>
+      <c r="I39">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K39">
+        <v>4.5</v>
+      </c>
+      <c r="L39">
+        <v>20.6</v>
+      </c>
+      <c r="N39">
+        <v>4.5</v>
+      </c>
+      <c r="O39">
+        <v>22.8</v>
+      </c>
+      <c r="Q39">
+        <v>4.5</v>
+      </c>
+      <c r="R39">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="S39">
+        <v>4.5</v>
+      </c>
+      <c r="T39">
+        <v>20.2</v>
+      </c>
+      <c r="U39">
+        <v>4.5</v>
+      </c>
+      <c r="V39">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>23.2</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40">
+        <v>20.5</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+      <c r="O40">
+        <v>23.2</v>
+      </c>
+      <c r="Q40">
+        <v>5</v>
+      </c>
+      <c r="R40">
+        <v>18.5</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>20.6</v>
+      </c>
+      <c r="U40">
+        <v>5</v>
+      </c>
+      <c r="V40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>10.5</v>
+      </c>
+      <c r="E41">
+        <v>5.5</v>
+      </c>
+      <c r="F41">
+        <v>23.2</v>
+      </c>
+      <c r="H41">
+        <v>5.5</v>
+      </c>
+      <c r="I41">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K41">
+        <v>5.5</v>
+      </c>
+      <c r="L41">
+        <v>20.3</v>
+      </c>
+      <c r="N41">
+        <v>5.5</v>
+      </c>
+      <c r="O41">
+        <v>23.2</v>
+      </c>
+      <c r="Q41">
+        <v>5.5</v>
+      </c>
+      <c r="R41">
+        <v>18.3</v>
+      </c>
+      <c r="S41">
+        <v>5.5</v>
+      </c>
+      <c r="T41">
+        <v>20.6</v>
+      </c>
+      <c r="U41">
+        <v>5.5</v>
+      </c>
+      <c r="V41">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>23.3</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K42">
+        <v>6</v>
+      </c>
+      <c r="L42">
+        <v>20.6</v>
+      </c>
+      <c r="N42">
+        <v>6</v>
+      </c>
+      <c r="O42">
+        <v>22.8</v>
+      </c>
+      <c r="Q42">
+        <v>6</v>
+      </c>
+      <c r="R42">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="S42">
+        <v>6</v>
+      </c>
+      <c r="T42">
+        <v>20.6</v>
+      </c>
+      <c r="U42">
+        <v>6</v>
+      </c>
+      <c r="V42">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>11.5</v>
+      </c>
+      <c r="E43">
+        <v>6.5</v>
+      </c>
+      <c r="F43">
+        <v>23.6</v>
+      </c>
+      <c r="H43">
+        <v>6.5</v>
+      </c>
+      <c r="I43">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K43">
+        <v>6.5</v>
+      </c>
+      <c r="L43">
+        <v>20.2</v>
+      </c>
+      <c r="N43">
+        <v>6.5</v>
+      </c>
+      <c r="O43">
+        <v>22.7</v>
+      </c>
+      <c r="Q43">
+        <v>6.5</v>
+      </c>
+      <c r="R43">
+        <v>18.5</v>
+      </c>
+      <c r="S43">
+        <v>6.5</v>
+      </c>
+      <c r="T43">
+        <v>20.6</v>
+      </c>
+      <c r="U43">
+        <v>6.5</v>
+      </c>
+      <c r="V43">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>23.7</v>
+      </c>
+      <c r="H44">
+        <v>7</v>
+      </c>
+      <c r="I44">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K44">
+        <v>7</v>
+      </c>
+      <c r="L44">
+        <v>20.2</v>
+      </c>
+      <c r="N44">
+        <v>7</v>
+      </c>
+      <c r="O44">
+        <v>22.4</v>
+      </c>
+      <c r="Q44">
+        <v>7</v>
+      </c>
+      <c r="R44">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="S44">
+        <v>7</v>
+      </c>
+      <c r="T44">
+        <v>20.7</v>
+      </c>
+      <c r="U44">
+        <v>7</v>
+      </c>
+      <c r="V44">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>12.5</v>
+      </c>
+      <c r="E45">
+        <v>7.5</v>
+      </c>
+      <c r="F45">
+        <v>23.6</v>
+      </c>
+      <c r="H45">
+        <v>7.5</v>
+      </c>
+      <c r="I45">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K45">
+        <v>7.5</v>
+      </c>
+      <c r="L45">
+        <v>20.2</v>
+      </c>
+      <c r="N45">
+        <v>7.5</v>
+      </c>
+      <c r="O45">
+        <v>22.4</v>
+      </c>
+      <c r="Q45">
+        <v>7.5</v>
+      </c>
+      <c r="R45">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="S45">
+        <v>7.5</v>
+      </c>
+      <c r="T45">
+        <v>20.7</v>
+      </c>
+      <c r="U45">
+        <v>7.5</v>
+      </c>
+      <c r="V45">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>23.6</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K46">
+        <v>8</v>
+      </c>
+      <c r="L46">
+        <v>20.2</v>
+      </c>
+      <c r="N46">
+        <v>8</v>
+      </c>
+      <c r="O46">
+        <v>22.4</v>
+      </c>
+      <c r="Q46">
+        <v>8</v>
+      </c>
+      <c r="R46">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="S46">
+        <v>8</v>
+      </c>
+      <c r="T46">
+        <v>20.7</v>
+      </c>
+      <c r="U46">
+        <v>8</v>
+      </c>
+      <c r="V46">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>13.5</v>
+      </c>
+      <c r="E47">
+        <v>8.5</v>
+      </c>
+      <c r="H47">
+        <v>8.5</v>
+      </c>
+      <c r="I47">
+        <v>18</v>
+      </c>
+      <c r="K47">
+        <v>8.5</v>
+      </c>
+      <c r="N47">
+        <v>8.5</v>
+      </c>
+      <c r="O47">
+        <v>22.4</v>
+      </c>
+      <c r="Q47">
+        <v>8.5</v>
+      </c>
+      <c r="R47">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="S47">
+        <v>8.5</v>
+      </c>
+      <c r="T47">
+        <v>20.7</v>
+      </c>
+      <c r="U47">
+        <v>8.5</v>
+      </c>
+      <c r="V47">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>23.7</v>
+      </c>
+      <c r="H48">
+        <v>9</v>
+      </c>
+      <c r="I48">
+        <v>18</v>
+      </c>
+      <c r="K48">
+        <v>9</v>
+      </c>
+      <c r="N48">
+        <v>9</v>
+      </c>
+      <c r="O48">
+        <v>22.2</v>
+      </c>
+      <c r="Q48">
+        <v>9</v>
+      </c>
+      <c r="R48">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="S48">
+        <v>9</v>
+      </c>
+      <c r="T48">
+        <v>20.7</v>
+      </c>
+      <c r="U48">
+        <v>9</v>
+      </c>
+      <c r="V48">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>14.5</v>
+      </c>
+      <c r="E49">
+        <v>9.5</v>
+      </c>
+      <c r="F49">
+        <v>24</v>
+      </c>
+      <c r="H49">
+        <v>9.5</v>
+      </c>
+      <c r="I49">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K49">
+        <v>9.5</v>
+      </c>
+      <c r="N49">
+        <v>9.5</v>
+      </c>
+      <c r="O49">
+        <v>22</v>
+      </c>
+      <c r="Q49">
+        <v>9.5</v>
+      </c>
+      <c r="R49">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="S49">
+        <v>9.5</v>
+      </c>
+      <c r="U49">
+        <v>9.5</v>
+      </c>
+      <c r="V49">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>23.7</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="I50">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K50">
+        <v>10</v>
+      </c>
+      <c r="N50">
+        <v>10</v>
+      </c>
+      <c r="O50">
+        <v>22</v>
+      </c>
+      <c r="Q50">
+        <v>10</v>
+      </c>
+      <c r="R50">
+        <v>18.5</v>
+      </c>
+      <c r="S50">
+        <v>10</v>
+      </c>
+      <c r="U50">
+        <v>10</v>
+      </c>
+      <c r="V50">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>15.5</v>
+      </c>
+      <c r="E51">
+        <v>10.5</v>
+      </c>
+      <c r="F51">
+        <v>23.2</v>
+      </c>
+      <c r="H51">
+        <v>10.5</v>
+      </c>
+      <c r="I51">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K51">
+        <v>10.5</v>
+      </c>
+      <c r="N51">
+        <v>10.5</v>
+      </c>
+      <c r="O51">
+        <v>21.9</v>
+      </c>
+      <c r="U51">
+        <v>10.5</v>
+      </c>
+      <c r="V51">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="E52">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>23.2</v>
+      </c>
+      <c r="H52">
+        <v>11</v>
+      </c>
+      <c r="I52">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K52">
+        <v>11</v>
+      </c>
+      <c r="N52">
+        <v>11</v>
+      </c>
+      <c r="O52">
+        <v>21.9</v>
+      </c>
+      <c r="U52">
+        <v>11</v>
+      </c>
+      <c r="V52">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>11.5</v>
+      </c>
+      <c r="F53">
+        <v>23.2</v>
+      </c>
+      <c r="H53">
+        <v>11.5</v>
+      </c>
+      <c r="I53">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K53">
+        <v>11.5</v>
+      </c>
+      <c r="N53">
+        <v>11.5</v>
+      </c>
+      <c r="O53">
+        <v>21.9</v>
+      </c>
+      <c r="U53">
+        <v>11.5</v>
+      </c>
+      <c r="V53">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>12</v>
+      </c>
+      <c r="F54">
+        <v>23.2</v>
+      </c>
+      <c r="H54">
+        <v>12</v>
+      </c>
+      <c r="I54">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K54">
+        <v>12</v>
+      </c>
+      <c r="N54">
+        <v>12</v>
+      </c>
+      <c r="O54">
+        <v>22</v>
+      </c>
+      <c r="U54">
+        <v>12</v>
+      </c>
+      <c r="V54">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>12.5</v>
+      </c>
+      <c r="H55">
+        <v>12.5</v>
+      </c>
+      <c r="I55">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="K55">
+        <v>12.5</v>
+      </c>
+      <c r="N55">
+        <v>12.5</v>
+      </c>
+      <c r="O55">
+        <v>21.9</v>
+      </c>
+      <c r="U55">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>13</v>
+      </c>
+      <c r="H56">
+        <v>13</v>
+      </c>
+      <c r="I56">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="K56">
+        <v>13</v>
+      </c>
+      <c r="N56">
+        <v>13</v>
+      </c>
+      <c r="O56">
+        <v>21.9</v>
+      </c>
+      <c r="U56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>13.5</v>
+      </c>
+      <c r="H57">
+        <v>13.5</v>
+      </c>
+      <c r="I57">
+        <v>17.8</v>
+      </c>
+      <c r="K57">
+        <v>13.5</v>
+      </c>
+      <c r="N57">
+        <v>13.5</v>
+      </c>
+      <c r="U57">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>14</v>
+      </c>
+      <c r="I58">
+        <v>18</v>
+      </c>
+      <c r="K58">
+        <v>14</v>
+      </c>
+      <c r="N58">
+        <v>14</v>
+      </c>
+      <c r="U58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>14.5</v>
+      </c>
+      <c r="U59">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>15</v>
+      </c>
+      <c r="U60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>15.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test_sheet.xlsx
+++ b/Test_sheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Thesis\MT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B13EA6-FCF5-4E35-930B-A117789DE6A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C736533A-4F8B-470C-B6D8-7A18B39FE218}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="2" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="2" r:id="rId1"/>
     <sheet name="Tests" sheetId="1" r:id="rId2"/>
+    <sheet name="Test plan different tension" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>Sheet for entering test data</t>
   </si>
@@ -152,13 +153,61 @@
   </si>
   <si>
     <t>T9</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Loose</t>
+  </si>
+  <si>
+    <t>Very Loose</t>
+  </si>
+  <si>
+    <t>Tensioned</t>
+  </si>
+  <si>
+    <t>Very Tensioned</t>
+  </si>
+  <si>
+    <t>Belt tension Motor(+-10)</t>
+  </si>
+  <si>
+    <t>Compressor</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Measured tension</t>
+  </si>
+  <si>
+    <t>Tension after test</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>180deg</t>
+  </si>
+  <si>
+    <t>~140</t>
+  </si>
+  <si>
+    <t>~160</t>
+  </si>
+  <si>
+    <t>Tests for  T2-T10_steady_t95-t180</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +230,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -191,8 +247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -385,10 +440,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -412,14 +468,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bra" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -735,7 +799,7 @@
   <dimension ref="A3:E26"/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,111 +839,127 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="A6" s="24">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="26">
         <v>225</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="27">
         <v>800</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="28">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="24">
         <v>2</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8">
+      <c r="B7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="24">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8">
+      <c r="B8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="25">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="24">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7">
+      <c r="B9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="29">
         <v>1300</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="25">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="24">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8">
+      <c r="B10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="24">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8">
+      <c r="B11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="25">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="24">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7">
+      <c r="B12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="29">
         <v>1800</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="25">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="24">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8">
+      <c r="B13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+      <c r="A14" s="30">
         <v>9</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11">
+      <c r="B14" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="31">
         <v>22</v>
       </c>
     </row>
@@ -1014,7 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ADE930-95F2-4FE7-8425-1D0ED343DBA9}">
   <dimension ref="B2:V61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
@@ -1456,31 +1536,31 @@
       <c r="K26" s="15"/>
     </row>
     <row r="29" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28" t="s">
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28" t="s">
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28" t="s">
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
       <c r="Q29" t="s">
         <v>39</v>
       </c>
@@ -2714,4 +2794,189 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D7FBE0-FB77-446D-8C3D-573F9BCE60AC}">
+  <dimension ref="B1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="17">
+        <v>100</v>
+      </c>
+      <c r="E3" s="18">
+        <v>810</v>
+      </c>
+      <c r="F3" s="19">
+        <v>10</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="14">
+        <v>125</v>
+      </c>
+      <c r="J3" s="14">
+        <v>100</v>
+      </c>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="6">
+        <v>120</v>
+      </c>
+      <c r="E4" s="7">
+        <v>810</v>
+      </c>
+      <c r="F4" s="8">
+        <v>10</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14">
+        <f>AVERAGEA(128, 110, 127, 125, 118, 120, 123, 122, 127, 126)</f>
+        <v>122.6</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6">
+        <v>140</v>
+      </c>
+      <c r="E5" s="7">
+        <v>810</v>
+      </c>
+      <c r="F5" s="8">
+        <v>10</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6">
+        <v>160</v>
+      </c>
+      <c r="E6" s="7">
+        <v>810</v>
+      </c>
+      <c r="F6" s="8">
+        <v>10</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="33">
+        <v>180</v>
+      </c>
+      <c r="E7" s="10">
+        <v>810</v>
+      </c>
+      <c r="F7" s="11">
+        <v>10</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15">
+        <v>180</v>
+      </c>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test_sheet.xlsx
+++ b/Test_sheet.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Thesis\MT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C736533A-4F8B-470C-B6D8-7A18B39FE218}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B413DE0E-AAC5-48C9-A5DC-25150550637D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="2" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="2" activeTab="5" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="2" r:id="rId1"/>
-    <sheet name="Tests" sheetId="1" r:id="rId2"/>
-    <sheet name="Test plan different tension" sheetId="3" r:id="rId3"/>
+    <sheet name="Test plan 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Tests 2018-04-20" sheetId="1" r:id="rId3"/>
+    <sheet name="Tests 2018-04-24" sheetId="3" r:id="rId4"/>
+    <sheet name="Tests 2018-04-26" sheetId="5" r:id="rId5"/>
+    <sheet name="Tests 2018-04-27" sheetId="6" r:id="rId6"/>
+    <sheet name="Changes to rig and DAQ" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="118">
   <si>
     <t>Sheet for entering test data</t>
   </si>
@@ -200,7 +204,187 @@
     <t>~160</t>
   </si>
   <si>
-    <t>Tests for  T2-T10_steady_t95-t180</t>
+    <t>Tests for  T1-T12_steady/trans_t95-t180</t>
+  </si>
+  <si>
+    <t>Compressor status</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>170-180</t>
+  </si>
+  <si>
+    <t>Warm up test with compressor initally off, then turned on, 24 Ampere, 810 RPM, 170-180 tension</t>
+  </si>
+  <si>
+    <t>Test.nr</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>0-24</t>
+  </si>
+  <si>
+    <t>0-810</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>T_after</t>
+  </si>
+  <si>
+    <t>175-185</t>
+  </si>
+  <si>
+    <t>180-200</t>
+  </si>
+  <si>
+    <t>Warm up</t>
+  </si>
+  <si>
+    <t>T1_t200_i24_rpm1600</t>
+  </si>
+  <si>
+    <t>21-22</t>
+  </si>
+  <si>
+    <t>22-23</t>
+  </si>
+  <si>
+    <t>Reduced speed, same setup</t>
+  </si>
+  <si>
+    <t>RPM[840,1200,1590]</t>
+  </si>
+  <si>
+    <t>T2_t200_i24_rpm1200</t>
+  </si>
+  <si>
+    <t>T3_t200_i24_rpm800</t>
+  </si>
+  <si>
+    <t>Reduced speed, same setup, and cooldown in same test</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>Heat from roof</t>
+  </si>
+  <si>
+    <t>T4_t100_i24_rpm1600</t>
+  </si>
+  <si>
+    <t>T6_t100_i24_rpm800</t>
+  </si>
+  <si>
+    <t>T5_t100_i24_rpm1200</t>
+  </si>
+  <si>
+    <t>Same as test 1 but with 100 in tension, start from cold(2 hours lunch)</t>
+  </si>
+  <si>
+    <t>from test 4, compressor off, decreasing speed to 1200, then compressor on, door opened after 7mins, 14:30 roof heat turned down</t>
+  </si>
+  <si>
+    <t>Test for high tension with compressor on, from warmed up to steady state, change current to 21 in name, long run to determine the top temperature of tensioner pulley, adjusted fan power</t>
+  </si>
+  <si>
+    <t>from test 5, compressor off, decreasing speed to 800, then compressor on, compressor off from 13:25, ramp down</t>
+  </si>
+  <si>
+    <t>T_after_comp</t>
+  </si>
+  <si>
+    <t>T_Comp</t>
+  </si>
+  <si>
+    <t>Tensioned to 200, running for 20 minutes, ramp down,stop, 2,5 turns cw</t>
+  </si>
+  <si>
+    <t>0-1500</t>
+  </si>
+  <si>
+    <t>T7_t75_i24_rpm800</t>
+  </si>
+  <si>
+    <t>hz</t>
+  </si>
+  <si>
+    <t>3 turns a-cw (100-110), 1 turn extra a-cw(80-90), another 0,5 a-cw(75), ramp up without load, fans on 4:20, comp on 4:40, door opens 11:00, changing load for a period, cooldown</t>
+  </si>
+  <si>
+    <t>78,79,70,77,80</t>
+  </si>
+  <si>
+    <t>No load</t>
+  </si>
+  <si>
+    <t>No load, same as before</t>
+  </si>
+  <si>
+    <t>T9_t75_i24_rpm1200</t>
+  </si>
+  <si>
+    <t>T12_t300_i24_rpm1200</t>
+  </si>
+  <si>
+    <t>T8_t75_i24_rpm800_noLoad</t>
+  </si>
+  <si>
+    <t>9.0-10.0</t>
+  </si>
+  <si>
+    <t>No load, same as before, ramp down lunch break</t>
+  </si>
+  <si>
+    <t>test1200Load</t>
+  </si>
+  <si>
+    <t>9.0-10</t>
+  </si>
+  <si>
+    <t>added load from 120 rpm without load, removed load, cooldown</t>
+  </si>
+  <si>
+    <t>9_2</t>
+  </si>
+  <si>
+    <t>T11_t300_i24_rpm1600</t>
+  </si>
+  <si>
+    <t>moved thermo couple on pulley</t>
+  </si>
+  <si>
+    <t>5 turns cw(230),2 turn cw(250), 1 turn cw(250), 1turn cw(), 0.5 turn a-cw(310,370), 0.5 a-cw. , ramp up then load on</t>
+  </si>
+  <si>
+    <t>T10_t75_i24_rpm1600</t>
+  </si>
+  <si>
+    <t>card board is loose, warm air enters compressor area</t>
+  </si>
+  <si>
+    <t>ramp down to 1200 from 1600, clutch off and on</t>
+  </si>
+  <si>
+    <t>T13_t300_i24_rpm800</t>
+  </si>
+  <si>
+    <t>card borad back in place</t>
+  </si>
+  <si>
+    <t>same as T12, pulley temperature strange in 03:40:00 clutch off/ on/ off, ramp down</t>
   </si>
 </sst>
 </file>
@@ -251,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -439,12 +623,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -481,6 +676,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bra" xfId="1" builtinId="26"/>
@@ -799,7 +1000,7 @@
   <dimension ref="A3:E26"/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,10 +1292,173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05EECE0-6CF0-4AA4-A814-E04E97D60F20}">
+  <dimension ref="B2:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18">
+        <v>180</v>
+      </c>
+      <c r="E5" s="18">
+        <v>810</v>
+      </c>
+      <c r="F5" s="19">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
+        <v>1320</v>
+      </c>
+      <c r="F8" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>1800</v>
+      </c>
+      <c r="F11" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="9">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ADE930-95F2-4FE7-8425-1D0ED343DBA9}">
   <dimension ref="B2:V61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E39" workbookViewId="0">
       <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
@@ -2796,12 +3160,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D7FBE0-FB77-446D-8C3D-573F9BCE60AC}">
-  <dimension ref="B1:K10"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2815,10 +3179,13 @@
     <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" s="12" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -2845,7 +3212,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>44</v>
       </c>
@@ -2872,7 +3239,7 @@
       </c>
       <c r="K3" s="34"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
@@ -2900,7 +3267,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
@@ -2925,7 +3292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>45</v>
       </c>
@@ -2946,9 +3313,11 @@
       <c r="J6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K6" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>46</v>
       </c>
@@ -2966,14 +3335,728 @@
         <v>49</v>
       </c>
       <c r="I7" s="15"/>
-      <c r="J7" s="15">
-        <v>180</v>
+      <c r="J7" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="K7" s="15"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>57</v>
+      </c>
+      <c r="E10" s="36">
+        <v>43214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFF44D6-F28F-416F-BD0F-FE0907501C17}">
+  <dimension ref="A3:S26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="36">
+        <v>43216</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4">
+        <v>175</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10">
+        <v>200</v>
+      </c>
+      <c r="P10">
+        <v>23</v>
+      </c>
+      <c r="Q10">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
+      <c r="P13">
+        <v>22</v>
+      </c>
+      <c r="Q13">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <v>23</v>
+      </c>
+      <c r="Q15">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="O17">
+        <v>130</v>
+      </c>
+      <c r="P17">
+        <v>23</v>
+      </c>
+      <c r="Q17">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E26" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0C3879-5E2A-4649-AB17-2527565AA58B}">
+  <dimension ref="B3:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="38">
+        <v>43217</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="U3" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4">
+        <v>200</v>
+      </c>
+      <c r="P4">
+        <v>200</v>
+      </c>
+      <c r="R4">
+        <v>220</v>
+      </c>
+      <c r="T4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s">
+        <v>97</v>
+      </c>
+      <c r="R6">
+        <v>100</v>
+      </c>
+      <c r="S6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6">
+        <v>840</v>
+      </c>
+      <c r="U6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8">
+        <v>75</v>
+      </c>
+      <c r="P8">
+        <v>75</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8">
+        <v>100</v>
+      </c>
+      <c r="S8" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8">
+        <v>840</v>
+      </c>
+      <c r="U8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10">
+        <v>75</v>
+      </c>
+      <c r="P10">
+        <v>75</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10">
+        <v>100</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="T13">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15">
+        <v>75</v>
+      </c>
+      <c r="P15">
+        <v>75</v>
+      </c>
+      <c r="Q15">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>100</v>
+      </c>
+      <c r="S15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>111</v>
+      </c>
+      <c r="O17">
+        <v>300</v>
+      </c>
+      <c r="Q17">
+        <v>360</v>
+      </c>
+      <c r="S17">
+        <v>22</v>
+      </c>
+      <c r="T17">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="O19">
+        <v>300</v>
+      </c>
+      <c r="Q19">
+        <v>360</v>
+      </c>
+      <c r="S19">
+        <v>23</v>
+      </c>
+      <c r="T19">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+      <c r="O21">
+        <v>300</v>
+      </c>
+      <c r="P21">
+        <v>250</v>
+      </c>
+      <c r="Q21">
+        <v>360</v>
+      </c>
+      <c r="R21">
+        <v>260</v>
+      </c>
+      <c r="S21">
+        <v>23</v>
+      </c>
+      <c r="T21">
+        <v>840</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB3C77A-A86C-41CC-8808-23B3DAFB340B}">
+  <dimension ref="B5:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="36">
+        <v>43217</v>
+      </c>
+      <c r="C5" s="40">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="40">
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="40">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="E7" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Test_sheet.xlsx
+++ b/Test_sheet.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Thesis\MT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor\Documents\MATLAB\MT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B413DE0E-AAC5-48C9-A5DC-25150550637D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19AA53F-2910-4399-9A57-B286563388AC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="2" activeTab="5" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test plan" sheetId="2" r:id="rId1"/>
-    <sheet name="Test plan 2" sheetId="4" r:id="rId2"/>
-    <sheet name="Tests 2018-04-20" sheetId="1" r:id="rId3"/>
-    <sheet name="Tests 2018-04-24" sheetId="3" r:id="rId4"/>
-    <sheet name="Tests 2018-04-26" sheetId="5" r:id="rId5"/>
-    <sheet name="Tests 2018-04-27" sheetId="6" r:id="rId6"/>
-    <sheet name="Changes to rig and DAQ" sheetId="7" r:id="rId7"/>
+    <sheet name="Test requests" sheetId="8" r:id="rId1"/>
+    <sheet name="Test plan" sheetId="2" r:id="rId2"/>
+    <sheet name="Test plan 2" sheetId="4" r:id="rId3"/>
+    <sheet name="Tests 2018-04-20" sheetId="1" r:id="rId4"/>
+    <sheet name="Tests 2018-04-24" sheetId="3" r:id="rId5"/>
+    <sheet name="Tests 2018-04-26" sheetId="5" r:id="rId6"/>
+    <sheet name="Tests 2018-04-27" sheetId="6" r:id="rId7"/>
+    <sheet name="Changes to rig and DAQ" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="126">
   <si>
     <t>Sheet for entering test data</t>
   </si>
@@ -385,6 +386,30 @@
   </si>
   <si>
     <t>same as T12, pulley temperature strange in 03:40:00 clutch off/ on/ off, ramp down</t>
+  </si>
+  <si>
+    <t>Tension</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>25 speed steps</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>Estimated time</t>
+  </si>
+  <si>
+    <t>1h</t>
   </si>
 </sst>
 </file>
@@ -684,7 +709,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bra" xfId="1" builtinId="26"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -701,7 +726,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -996,6 +1021,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24284316-18BF-4C5E-A84E-8E46512499A7}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18">
+        <v>75</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="19">
+        <v>800</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>26</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
+        <v>200</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="8">
+        <v>800</v>
+      </c>
+      <c r="F7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <v>300</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="8">
+        <v>800</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16207D0F-B440-437E-AAF5-9FEB6DAE841A}">
   <dimension ref="A3:E26"/>
   <sheetViews>
@@ -1003,15 +1231,15 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="35.5546875" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +1250,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
@@ -1039,7 +1267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>1</v>
       </c>
@@ -1056,7 +1284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>2</v>
       </c>
@@ -1069,7 +1297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>3</v>
       </c>
@@ -1082,7 +1310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>4</v>
       </c>
@@ -1097,7 +1325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>5</v>
       </c>
@@ -1110,7 +1338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>6</v>
       </c>
@@ -1123,7 +1351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>7</v>
       </c>
@@ -1138,7 +1366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>8</v>
       </c>
@@ -1151,7 +1379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <v>9</v>
       </c>
@@ -1164,12 +1392,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>10</v>
       </c>
@@ -1184,7 +1412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>11</v>
       </c>
@@ -1195,7 +1423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -1206,7 +1434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>13</v>
       </c>
@@ -1219,7 +1447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>14</v>
       </c>
@@ -1230,7 +1458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -1241,7 +1469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1254,7 +1482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1265,7 +1493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>18</v>
       </c>
@@ -1276,178 +1504,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05EECE0-6CF0-4AA4-A814-E04E97D60F20}">
-  <dimension ref="B2:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="17">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18">
-        <v>180</v>
-      </c>
-      <c r="E5" s="18">
-        <v>810</v>
-      </c>
-      <c r="F5" s="19">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
-        <v>4</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
-        <v>1320</v>
-      </c>
-      <c r="F8" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="6">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="6">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7">
-        <v>1800</v>
-      </c>
-      <c r="F11" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="6">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9">
-        <v>9</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1455,6 +1520,169 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05EECE0-6CF0-4AA4-A814-E04E97D60F20}">
+  <dimension ref="B2:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18">
+        <v>180</v>
+      </c>
+      <c r="E5" s="18">
+        <v>810</v>
+      </c>
+      <c r="F5" s="19">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
+        <v>1320</v>
+      </c>
+      <c r="F8" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>1800</v>
+      </c>
+      <c r="F11" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ADE930-95F2-4FE7-8425-1D0ED343DBA9}">
   <dimension ref="B2:V61"/>
   <sheetViews>
@@ -1462,28 +1690,28 @@
       <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1500,7 +1728,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1533,7 +1761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
@@ -1563,7 +1791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1589,7 +1817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
@@ -1615,7 +1843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
@@ -1641,7 +1869,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="22">
         <v>0.33333333333333331</v>
@@ -1665,7 +1893,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="22">
         <v>0.54166666666666663</v>
@@ -1689,7 +1917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8">
@@ -1709,7 +1937,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8">
@@ -1723,7 +1951,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8">
@@ -1737,7 +1965,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8">
@@ -1751,7 +1979,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8">
@@ -1765,7 +1993,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8">
@@ -1779,7 +2007,7 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8">
@@ -1793,7 +2021,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8">
@@ -1807,7 +2035,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8">
@@ -1821,7 +2049,7 @@
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8">
@@ -1835,7 +2063,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8">
@@ -1849,7 +2077,7 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8">
@@ -1863,7 +2091,7 @@
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
@@ -1875,7 +2103,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
@@ -1887,7 +2115,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
@@ -1899,7 +2127,7 @@
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
     </row>
-    <row r="29" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>23</v>
       </c>
@@ -1935,7 +2163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>5</v>
       </c>
@@ -1985,7 +2213,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>5.5</v>
       </c>
@@ -2029,7 +2257,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>6</v>
       </c>
@@ -2079,7 +2307,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>6.5</v>
       </c>
@@ -2129,7 +2357,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>7</v>
       </c>
@@ -2179,7 +2407,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>7.5</v>
       </c>
@@ -2229,7 +2457,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>8</v>
       </c>
@@ -2279,7 +2507,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>8.5</v>
       </c>
@@ -2326,7 +2554,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>9</v>
       </c>
@@ -2376,7 +2604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>9.5</v>
       </c>
@@ -2426,7 +2654,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>10</v>
       </c>
@@ -2473,7 +2701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>10.5</v>
       </c>
@@ -2520,7 +2748,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>11</v>
       </c>
@@ -2570,7 +2798,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>11.5</v>
       </c>
@@ -2617,7 +2845,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>12</v>
       </c>
@@ -2664,7 +2892,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>12.5</v>
       </c>
@@ -2711,7 +2939,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>13</v>
       </c>
@@ -2761,7 +2989,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>13.5</v>
       </c>
@@ -2802,7 +3030,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>14</v>
       </c>
@@ -2846,7 +3074,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>14.5</v>
       </c>
@@ -2887,7 +3115,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>15</v>
       </c>
@@ -2928,7 +3156,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>15.5</v>
       </c>
@@ -2960,7 +3188,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>16</v>
       </c>
@@ -2992,7 +3220,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E53">
         <v>11.5</v>
       </c>
@@ -3021,7 +3249,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E54">
         <v>12</v>
       </c>
@@ -3050,7 +3278,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E55">
         <v>12.5</v>
       </c>
@@ -3073,7 +3301,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E56">
         <v>13</v>
       </c>
@@ -3096,7 +3324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E57">
         <v>13.5</v>
       </c>
@@ -3116,7 +3344,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H58">
         <v>14</v>
       </c>
@@ -3133,7 +3361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H59">
         <v>14.5</v>
       </c>
@@ -3141,7 +3369,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H60">
         <v>15</v>
       </c>
@@ -3149,7 +3377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H61">
         <v>15.5</v>
       </c>
@@ -3160,7 +3388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D7FBE0-FB77-446D-8C3D-573F9BCE60AC}">
   <dimension ref="A1:L22"/>
   <sheetViews>
@@ -3168,19 +3396,19 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3212,7 +3440,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>44</v>
       </c>
@@ -3239,7 +3467,7 @@
       </c>
       <c r="K3" s="34"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
@@ -3267,7 +3495,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
@@ -3292,7 +3520,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>45</v>
       </c>
@@ -3317,7 +3545,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>46</v>
       </c>
@@ -3340,7 +3568,7 @@
       </c>
       <c r="K7" s="15"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>57</v>
       </c>
@@ -3348,7 +3576,7 @@
         <v>43214</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3362,7 +3590,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -3376,7 +3604,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3390,7 +3618,7 @@
       <c r="K14" s="21"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -3404,7 +3632,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3418,7 +3646,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3432,7 +3660,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3446,7 +3674,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3460,7 +3688,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3474,7 +3702,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3488,7 +3716,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3507,7 +3735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFF44D6-F28F-416F-BD0F-FE0907501C17}">
   <dimension ref="A3:S26"/>
   <sheetViews>
@@ -3515,15 +3743,15 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>43216</v>
       </c>
@@ -3552,7 +3780,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>71</v>
       </c>
@@ -3575,7 +3803,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -3598,7 +3826,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>77</v>
       </c>
@@ -3618,7 +3846,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>78</v>
       </c>
@@ -3641,7 +3869,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -3664,7 +3892,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>85</v>
       </c>
@@ -3684,7 +3912,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>84</v>
       </c>
@@ -3707,7 +3935,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E26" s="39"/>
     </row>
   </sheetData>
@@ -3715,25 +3943,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0C3879-5E2A-4649-AB17-2527565AA58B}">
   <dimension ref="B3:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="38">
         <v>43217</v>
       </c>
@@ -3777,7 +4005,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>71</v>
       </c>
@@ -3800,7 +4028,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>80</v>
       </c>
@@ -3832,7 +4060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>102</v>
       </c>
@@ -3864,7 +4092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>100</v>
       </c>
@@ -3893,7 +4121,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>81</v>
       </c>
@@ -3913,7 +4141,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>105</v>
       </c>
@@ -3939,7 +4167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>109</v>
       </c>
@@ -3962,7 +4190,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>101</v>
       </c>
@@ -3985,7 +4213,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>115</v>
       </c>
@@ -4019,7 +4247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB3C77A-A86C-41CC-8808-23B3DAFB340B}">
   <dimension ref="B5:E7"/>
   <sheetViews>
@@ -4027,12 +4255,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="36">
         <v>43217</v>
       </c>
@@ -4043,7 +4271,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" s="40">
         <v>0.63124999999999998</v>
       </c>
@@ -4051,7 +4279,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" s="40">
         <v>0.65347222222222223</v>
       </c>

--- a/Test_sheet.xlsx
+++ b/Test_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Thesis\MT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B413DE0E-AAC5-48C9-A5DC-25150550637D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE1A80E-EF73-4B3D-832C-FE9C7429DE49}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="2" activeTab="5" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="3" activeTab="6" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Tests 2018-04-24" sheetId="3" r:id="rId4"/>
     <sheet name="Tests 2018-04-26" sheetId="5" r:id="rId5"/>
     <sheet name="Tests 2018-04-27" sheetId="6" r:id="rId6"/>
-    <sheet name="Changes to rig and DAQ" sheetId="7" r:id="rId7"/>
+    <sheet name="2018-05-01" sheetId="8" r:id="rId7"/>
+    <sheet name="Changes to rig and DAQ" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="139">
   <si>
     <t>Sheet for entering test data</t>
   </si>
@@ -385,6 +386,69 @@
   </si>
   <si>
     <t>same as T12, pulley temperature strange in 03:40:00 clutch off/ on/ off, ramp down</t>
+  </si>
+  <si>
+    <t>tension same as Friday</t>
+  </si>
+  <si>
+    <t>T14_Ten75_LowLoad_AllRPM</t>
+  </si>
+  <si>
+    <t>810.:30.:1800</t>
+  </si>
+  <si>
+    <t>T15_Ten75_HighLoad_AllRPM</t>
+  </si>
+  <si>
+    <t>T18_Ten300_LowLoad_AllRPM</t>
+  </si>
+  <si>
+    <t>T19_Ten300_HighLoad_AllRPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trying all rpm with high load, around 30 seconds on each rpm level,  2,30 minute settle time, 30 sec stop time in end, 19:30 done, rest stop time </t>
+  </si>
+  <si>
+    <t>test_after_pulley_changed</t>
+  </si>
+  <si>
+    <t>200-205</t>
+  </si>
+  <si>
+    <t>T16_Ten180_LowLoad_AllRPM</t>
+  </si>
+  <si>
+    <t>T17_Ten180_HighLoad_AllRPM</t>
+  </si>
+  <si>
+    <t>trying all rpm with low load,30 settle, around 30 seconds on each rpm level, one minute settle time, done 18:30, last 30 nothing</t>
+  </si>
+  <si>
+    <t>Service and disassembly, down 14 turns, warm up test, accelerometer on condeser fan casing</t>
+  </si>
+  <si>
+    <t>trying all rpm with low load, exactly 30 seconds on each rpm level, 6 turns a-cw, one minute settle time, time 18:30, last 30 nothing</t>
+  </si>
+  <si>
+    <t>22-19</t>
+  </si>
+  <si>
+    <t>25-22</t>
+  </si>
+  <si>
+    <t>I(from to)</t>
+  </si>
+  <si>
+    <t>trying all rpm with high load, 2 settling time, around 30 seconds on each rpm level, one minute settle time(?), done 19, last 30 nothing</t>
+  </si>
+  <si>
+    <t>up 4 turns, 60 seconds settle, done  18(comp off), cooldown 30</t>
+  </si>
+  <si>
+    <t>2.30 seconds settle, done 19(compressor off), cooldown 30 seconds</t>
+  </si>
+  <si>
+    <t>25-21</t>
   </si>
 </sst>
 </file>
@@ -639,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -682,6 +746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bra" xfId="1" builtinId="26"/>
@@ -1458,7 +1523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ADE930-95F2-4FE7-8425-1D0ED343DBA9}">
   <dimension ref="B2:V61"/>
   <sheetViews>
-    <sheetView topLeftCell="E39" workbookViewId="0">
+    <sheetView topLeftCell="E21" workbookViewId="0">
       <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
@@ -3719,8 +3784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0C3879-5E2A-4649-AB17-2527565AA58B}">
   <dimension ref="B3:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4020,11 +4085,289 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F287F0B2-5D14-41E7-B422-A81EE9AA7853}">
+  <dimension ref="A2:T17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3">
+        <v>260</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5">
+        <v>75</v>
+      </c>
+      <c r="O5">
+        <v>80</v>
+      </c>
+      <c r="R5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S5" s="42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7">
+        <v>80</v>
+      </c>
+      <c r="O7">
+        <v>90</v>
+      </c>
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7">
+        <v>105</v>
+      </c>
+      <c r="R7" t="s">
+        <v>133</v>
+      </c>
+      <c r="S7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9">
+        <v>180</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11">
+        <v>180</v>
+      </c>
+      <c r="O11">
+        <v>185</v>
+      </c>
+      <c r="P11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11">
+        <v>205</v>
+      </c>
+      <c r="R11" t="s">
+        <v>132</v>
+      </c>
+      <c r="S11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R12" s="41"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="N13">
+        <v>185</v>
+      </c>
+      <c r="O13">
+        <v>190</v>
+      </c>
+      <c r="P13">
+        <v>205</v>
+      </c>
+      <c r="Q13">
+        <v>210</v>
+      </c>
+      <c r="R13" t="s">
+        <v>133</v>
+      </c>
+      <c r="S13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N15">
+        <v>300</v>
+      </c>
+      <c r="O15">
+        <v>290</v>
+      </c>
+      <c r="P15">
+        <v>350</v>
+      </c>
+      <c r="Q15">
+        <v>330</v>
+      </c>
+      <c r="R15" t="s">
+        <v>132</v>
+      </c>
+      <c r="S15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="N17">
+        <v>290</v>
+      </c>
+      <c r="O17">
+        <v>280</v>
+      </c>
+      <c r="P17">
+        <v>330</v>
+      </c>
+      <c r="Q17">
+        <v>325</v>
+      </c>
+      <c r="R17" t="s">
+        <v>138</v>
+      </c>
+      <c r="S17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB3C77A-A86C-41CC-8808-23B3DAFB340B}">
   <dimension ref="B5:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test_sheet.xlsx
+++ b/Test_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Thesis\MT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE1A80E-EF73-4B3D-832C-FE9C7429DE49}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890E8DCB-0F15-419D-B044-441D373442D5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="3" activeTab="6" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="4" activeTab="7" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="Tests 2018-04-24" sheetId="3" r:id="rId4"/>
     <sheet name="Tests 2018-04-26" sheetId="5" r:id="rId5"/>
     <sheet name="Tests 2018-04-27" sheetId="6" r:id="rId6"/>
-    <sheet name="2018-05-01" sheetId="8" r:id="rId7"/>
-    <sheet name="Changes to rig and DAQ" sheetId="7" r:id="rId8"/>
+    <sheet name="Test 2018-05-01" sheetId="8" r:id="rId7"/>
+    <sheet name="Test2018-05-03" sheetId="9" r:id="rId8"/>
+    <sheet name="Changes to rig and DAQ" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="164">
   <si>
     <t>Sheet for entering test data</t>
   </si>
@@ -449,6 +450,81 @@
   </si>
   <si>
     <t>25-21</t>
+  </si>
+  <si>
+    <t>test_idle</t>
+  </si>
+  <si>
+    <t>2 minutes nothing on</t>
+  </si>
+  <si>
+    <t>test_warmup</t>
+  </si>
+  <si>
+    <t>board to lead condensor heat to the back</t>
+  </si>
+  <si>
+    <t>down 2 turns, then up to 1800 rpm, accelerometer frequency test at 1800, No load</t>
+  </si>
+  <si>
+    <t>T20_Ten200_RPM1800_CompOn</t>
+  </si>
+  <si>
+    <t>T21_TenHighToLow_RPM1200</t>
+  </si>
+  <si>
+    <t>T22_TenHighToLow_RPM1200</t>
+  </si>
+  <si>
+    <t>T23_TenHighToLow_RPM1200</t>
+  </si>
+  <si>
+    <t>T24_TenHighToLow_RPM1200</t>
+  </si>
+  <si>
+    <t>T25_TenHighToLow_RPM1200</t>
+  </si>
+  <si>
+    <t>T26_TenHighToLow_RPM1200</t>
+  </si>
+  <si>
+    <t>down 1 repeat, steady state pressure from 2, stop at 4</t>
+  </si>
+  <si>
+    <t>T27_TenHighToLow_RPM1200</t>
+  </si>
+  <si>
+    <t>T28_TenHighToLow_RPM1200</t>
+  </si>
+  <si>
+    <t>T29_TenHighToLow_RPM1200</t>
+  </si>
+  <si>
+    <t>T30_TenHighToLow_RPM1200</t>
+  </si>
+  <si>
+    <t>T31_TenHighToLow_RPM1200</t>
+  </si>
+  <si>
+    <t>down 1 repeat, steady state pressure from 3, stop at 5</t>
+  </si>
+  <si>
+    <t>T32_TenHighToLow_RPM1200</t>
+  </si>
+  <si>
+    <t>&gt;35</t>
+  </si>
+  <si>
+    <t>T33_LowTension</t>
+  </si>
+  <si>
+    <t>Ramping up with low tension, adding compressor changing load to high</t>
+  </si>
+  <si>
+    <t>running with compressor 1800rpm, fans on max</t>
+  </si>
+  <si>
+    <t>up3.5 turns, starting on high tension(300) going down one turn down to very low, steady state pressure from 2, stop at 4, fans on max</t>
   </si>
 </sst>
 </file>
@@ -4088,14 +4164,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F287F0B2-5D14-41E7-B422-A81EE9AA7853}">
   <dimension ref="A2:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.88671875" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.33203125" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
     <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.77734375" customWidth="1"/>
@@ -4363,11 +4440,305 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A4769B-1852-45AE-9057-B8B9331FA4B4}">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2">
+        <v>250</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M4">
+        <v>200</v>
+      </c>
+      <c r="N4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="M6">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
+      <c r="M9">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="M10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="M12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB3C77A-A86C-41CC-8808-23B3DAFB340B}">
-  <dimension ref="B5:E7"/>
+  <dimension ref="B5:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4402,6 +4773,17 @@
         <v>116</v>
       </c>
     </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="36">
+        <v>43222</v>
+      </c>
+      <c r="C8" s="40">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test_sheet.xlsx
+++ b/Test_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Thesis\MT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890E8DCB-0F15-419D-B044-441D373442D5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7BF248-D274-441A-AFD0-F537B30D402F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="4" activeTab="7" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="5" activeTab="8" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="Tests 2018-04-27" sheetId="6" r:id="rId6"/>
     <sheet name="Test 2018-05-01" sheetId="8" r:id="rId7"/>
     <sheet name="Test2018-05-03" sheetId="9" r:id="rId8"/>
-    <sheet name="Changes to rig and DAQ" sheetId="7" r:id="rId9"/>
+    <sheet name="Test2018-05-09" sheetId="10" r:id="rId9"/>
+    <sheet name="Changes to rig and DAQ" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="223">
   <si>
     <t>Sheet for entering test data</t>
   </si>
@@ -525,6 +526,183 @@
   </si>
   <si>
     <t>up3.5 turns, starting on high tension(300) going down one turn down to very low, steady state pressure from 2, stop at 4, fans on max</t>
+  </si>
+  <si>
+    <t>warmup</t>
+  </si>
+  <si>
+    <t>T34_AccOnComp_rpmLowToHigh</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>accelerometer on compressor right side, cable down, different rpm, up 4 turns, increasing load at 3:25, increasing to 1000 6:30, increasing to 1200 9:30, 12:15 up to 1400, up to 1600 at 15:50, up to 1800 at 18:50 comp off 22:50</t>
+  </si>
+  <si>
+    <t>T35_EvapOutTest</t>
+  </si>
+  <si>
+    <t>810-1800</t>
+  </si>
+  <si>
+    <t>Accelerometer back to tensioner arm , 1600rpm, comp on 2:50, trying for different evap_out, low load 5:00, 6:25 lowering evaporator fan, lowering again at 11:10, to lowest 12:50, 16:05 evap fan up, cond fan down, com off 21:50</t>
+  </si>
+  <si>
+    <t>tension 300 , no compressor</t>
+  </si>
+  <si>
+    <t>tension 270 , no compressor, down one turn, temp steady state</t>
+  </si>
+  <si>
+    <t>down one, compressor on in beginning</t>
+  </si>
+  <si>
+    <t>compressor off, ramp down in end</t>
+  </si>
+  <si>
+    <t>tension 270(250), compressor on in beginning , pressure steady state 6:00-9:00, ramp down in end</t>
+  </si>
+  <si>
+    <t>T36TenHighToLowRPM1200HighLoadTen1</t>
+  </si>
+  <si>
+    <t>T37TenHighToLowRPM1200NoLoadTen1</t>
+  </si>
+  <si>
+    <t>T38TenHighToLowRPM1200NoLoadTen2</t>
+  </si>
+  <si>
+    <t>T39TenHighToLowRPM1200HighLoadTen2</t>
+  </si>
+  <si>
+    <t>T40TenHighToLowRPM1200HighLoadTen3</t>
+  </si>
+  <si>
+    <t>T41TenHighToLowRPM1200NoLoadTen3</t>
+  </si>
+  <si>
+    <t>T42TenHighToLowRPM1200NoLoadTen4</t>
+  </si>
+  <si>
+    <t>T43TenHighToLowRPM1200HighLoadTen4</t>
+  </si>
+  <si>
+    <t>T44TenHighToLowRPM1200HighLoadTen5</t>
+  </si>
+  <si>
+    <t>T45TenHighToLowRPM1200NoLoadTen5</t>
+  </si>
+  <si>
+    <t>T46TenHighToLowRPM1200NoLoadTen6</t>
+  </si>
+  <si>
+    <t>T47TenHighToLowRPM1200HighLoadTen6</t>
+  </si>
+  <si>
+    <t>T48TenHighToLowRPM1200HighLoadTen7</t>
+  </si>
+  <si>
+    <t>T49TenHighToLowRPM1200NoLoadTen7</t>
+  </si>
+  <si>
+    <t>T50TenHighToLowRPM1200NoLoadTen8</t>
+  </si>
+  <si>
+    <t>T51TenHighToLowRPM1200HighLoadTen8</t>
+  </si>
+  <si>
+    <t>T52TenHighToLowRPM1200HighLoadTen9</t>
+  </si>
+  <si>
+    <t>T53TenHighToLowRPM1200NoLoadTen9</t>
+  </si>
+  <si>
+    <t>T54TenHighToLowRPM1200NoLoadTen10</t>
+  </si>
+  <si>
+    <t>T55TenHighToLowRPM1200HighLoadTen10</t>
+  </si>
+  <si>
+    <t>T56TenHighToLowRPM1200HighLoadTen11</t>
+  </si>
+  <si>
+    <t>T57TenHighToLowRPM1200NoLoadTen11</t>
+  </si>
+  <si>
+    <t>compressor off down one, ramp up to 1200,up to steady state temp</t>
+  </si>
+  <si>
+    <t>compressor on up to steady state, then off and ramp down</t>
+  </si>
+  <si>
+    <t>down one, ramp up, compressor on, compressor turned off</t>
+  </si>
+  <si>
+    <t>no comp, steadt state temp</t>
+  </si>
+  <si>
+    <t>no comp, down one, ramp up, steady state temp at 6:00, ramp down</t>
+  </si>
+  <si>
+    <t>comp started, ran until steady state pressure, then comp on, ramp down</t>
+  </si>
+  <si>
+    <t>LUNCH BREAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 turns up, 2 more, high load all tension from 300 , steady state pressure, RPM condenser fan 730, RPM evaporator fan full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warm up cond fan rpm 730, down one turn, high load </t>
+  </si>
+  <si>
+    <t>same, no load, compresor turned off in beginning, steady state, ramp down</t>
+  </si>
+  <si>
+    <t>high load, compressor on in beginning, steady state pressure, ramp down</t>
+  </si>
+  <si>
+    <t>T58 RandomDriveTen11</t>
+  </si>
+  <si>
+    <t>down one, ramp up, compressor on, steady state pressure</t>
+  </si>
+  <si>
+    <t>no comp, down one, ramp up, steady state temp</t>
+  </si>
+  <si>
+    <t>no comp, down one, ramp up, steady state temp, ramp down(?)</t>
+  </si>
+  <si>
+    <t>compressor turned on, up to steady state pressure</t>
+  </si>
+  <si>
+    <t>&lt;35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> compressor turned off, steady state temp, ramp down</t>
+  </si>
+  <si>
+    <t>doing some random testing, fans, speed etc</t>
+  </si>
+  <si>
+    <t>T59 CompOnOffTen11</t>
+  </si>
+  <si>
+    <t>up 6 turns, 30 seconds to start, 20 on, 10 off, 4 times</t>
+  </si>
+  <si>
+    <t>10 off 20 on, started on 10</t>
+  </si>
+  <si>
+    <t>T61 CompOnOff5Ten1</t>
+  </si>
+  <si>
+    <t>T60 CompOnOff5Ten5</t>
+  </si>
+  <si>
+    <t>up 5 turns(320), down one turn, start on 40, 20 seconds on, 10 seconds off, 4 times</t>
   </si>
 </sst>
 </file>
@@ -1432,6 +1610,62 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB3C77A-A86C-41CC-8808-23B3DAFB340B}">
+  <dimension ref="B5:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="36">
+        <v>43217</v>
+      </c>
+      <c r="C5" s="40">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="40">
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="40">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="36">
+        <v>43222</v>
+      </c>
+      <c r="C8" s="40">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05EECE0-6CF0-4AA4-A814-E04E97D60F20}">
   <dimension ref="B2:G13"/>
@@ -3861,7 +4095,7 @@
   <dimension ref="B3:U21"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4165,7 +4399,7 @@
   <dimension ref="A2:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4443,8 +4677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A4769B-1852-45AE-9057-B8B9331FA4B4}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4734,54 +4968,545 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB3C77A-A86C-41CC-8808-23B3DAFB340B}">
-  <dimension ref="B5:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873E6657-E81F-4447-8DBE-8CA74E72B38B}">
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="36">
-        <v>43217</v>
-      </c>
-      <c r="C5" s="40">
-        <v>0.60972222222222217</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3">
+        <v>150</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M4">
+        <v>150</v>
+      </c>
+      <c r="N4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>205</v>
+      </c>
+      <c r="M6">
+        <v>300</v>
+      </c>
+      <c r="Q6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7">
+        <v>300</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="M9">
+        <v>250</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="M10">
+        <v>250</v>
+      </c>
+      <c r="Q10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="M12">
+        <v>220</v>
+      </c>
+      <c r="Q12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+      <c r="M13">
+        <v>220</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+      <c r="M15">
+        <v>190</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>199</v>
+      </c>
+      <c r="M16">
+        <v>190</v>
+      </c>
+      <c r="Q16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
+      <c r="M18">
+        <v>165</v>
+      </c>
+      <c r="Q18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19">
+        <v>165</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21">
+        <v>140</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22">
+        <v>140</v>
+      </c>
+      <c r="Q22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>206</v>
+      </c>
+      <c r="M26">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="40">
-        <v>0.63124999999999998</v>
-      </c>
-      <c r="E6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="40">
-        <v>0.65347222222222223</v>
-      </c>
-      <c r="E7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="36">
-        <v>43222</v>
-      </c>
-      <c r="C8" s="40">
-        <v>0.43472222222222223</v>
-      </c>
-      <c r="E8" t="s">
-        <v>142</v>
+      <c r="Q26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27">
+        <v>110</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>212</v>
+      </c>
+      <c r="M29">
+        <v>85</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>208</v>
+      </c>
+      <c r="M30">
+        <v>85</v>
+      </c>
+      <c r="Q30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>210</v>
+      </c>
+      <c r="M32">
+        <v>70</v>
+      </c>
+      <c r="Q32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>215</v>
+      </c>
+      <c r="M33">
+        <v>70</v>
+      </c>
+      <c r="Q33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>211</v>
+      </c>
+      <c r="M35">
+        <v>45</v>
+      </c>
+      <c r="Q35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>213</v>
+      </c>
+      <c r="M36">
+        <v>45</v>
+      </c>
+      <c r="Q36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>210</v>
+      </c>
+      <c r="M38" t="s">
+        <v>214</v>
+      </c>
+      <c r="O38">
+        <v>55</v>
+      </c>
+      <c r="Q38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>215</v>
+      </c>
+      <c r="M39" t="s">
+        <v>214</v>
+      </c>
+      <c r="O39">
+        <v>55</v>
+      </c>
+      <c r="Q39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>216</v>
+      </c>
+      <c r="M41" t="s">
+        <v>214</v>
+      </c>
+      <c r="O41">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>219</v>
+      </c>
+      <c r="M42" t="s">
+        <v>214</v>
+      </c>
+      <c r="O42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>218</v>
+      </c>
+      <c r="M43">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>222</v>
+      </c>
+      <c r="M44">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Test_sheet.xlsx
+++ b/Test_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Thesis\MT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7BF248-D274-441A-AFD0-F537B30D402F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A16D8CE-0E61-4480-BF44-20030420507B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="5" activeTab="8" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="5" activeTab="9" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <sheet name="Test 2018-05-01" sheetId="8" r:id="rId7"/>
     <sheet name="Test2018-05-03" sheetId="9" r:id="rId8"/>
     <sheet name="Test2018-05-09" sheetId="10" r:id="rId9"/>
-    <sheet name="Changes to rig and DAQ" sheetId="7" r:id="rId10"/>
+    <sheet name="Test2018-05-15" sheetId="11" r:id="rId10"/>
+    <sheet name="Blad2" sheetId="12" r:id="rId11"/>
+    <sheet name="Changes to rig and DAQ" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="296">
   <si>
     <t>Sheet for entering test data</t>
   </si>
@@ -703,6 +705,225 @@
   </si>
   <si>
     <t>up 5 turns(320), down one turn, start on 40, 20 seconds on, 10 seconds off, 4 times</t>
+  </si>
+  <si>
+    <t>T63Warmup</t>
+  </si>
+  <si>
+    <t>T64AccMotor</t>
+  </si>
+  <si>
+    <t>T65AccBeam</t>
+  </si>
+  <si>
+    <t>T62Idle</t>
+  </si>
+  <si>
+    <t>fz</t>
+  </si>
+  <si>
+    <t>58-60</t>
+  </si>
+  <si>
+    <t>260-290</t>
+  </si>
+  <si>
+    <t>idle, down 2 turns, get temperatures, changed tension during test</t>
+  </si>
+  <si>
+    <t>warmup, accelerometer on motor, cable in to condenser</t>
+  </si>
+  <si>
+    <t>ramp up in beginning, compressor of 2:40, ramp down, Test starts, testing different speeds without compressor, 3:30, ramping at 4:00, 30 seconds each 200rpm</t>
+  </si>
+  <si>
+    <t>cable up, ramp up from 800, high load, compressor on 60 at seconds, ramping up from 2 min, 60 sec each step, down at 7</t>
+  </si>
+  <si>
+    <t>T66TempCheck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at 7:10 outer edge suface temp(45.3), inner surface 8:20 (45.5), 9:20 axis(39), moving ring(46.3), 12:10 belt contact surface on pulley (45.5) </t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L0</t>
+  </si>
+  <si>
+    <t>high load</t>
+  </si>
+  <si>
+    <t>low load</t>
+  </si>
+  <si>
+    <t>no load</t>
+  </si>
+  <si>
+    <t>1600 rpm</t>
+  </si>
+  <si>
+    <t>800 rpm</t>
+  </si>
+  <si>
+    <t>T67StartupTensionTest</t>
+  </si>
+  <si>
+    <t>accelerometer back, cable in, up 3 turns, comp on 1 min</t>
+  </si>
+  <si>
+    <t>T68Ten1RPM1600HighLoad</t>
+  </si>
+  <si>
+    <t>T69Ten1RPM1600LowLoad</t>
+  </si>
+  <si>
+    <t>T70Ten1RPM1600NoLoad</t>
+  </si>
+  <si>
+    <t>T71Ten1RPM800HighLoad</t>
+  </si>
+  <si>
+    <t>T72Ten1RPM800LowLoad</t>
+  </si>
+  <si>
+    <t>T73Ten1RPM800NoLoad</t>
+  </si>
+  <si>
+    <t>T74Ten2RPM1600HighLoad</t>
+  </si>
+  <si>
+    <t>T76Ten2RPM1600NoLoad</t>
+  </si>
+  <si>
+    <t>T77Ten2RPM800HighLoad</t>
+  </si>
+  <si>
+    <t>T78Ten2RPM800LowLoad</t>
+  </si>
+  <si>
+    <t>T79Ten2RPM800NoLoad</t>
+  </si>
+  <si>
+    <t>T80Ten3RPM1600HighLoad</t>
+  </si>
+  <si>
+    <t>T81Ten3RPM1600LowLoad</t>
+  </si>
+  <si>
+    <t>T82Ten3RPM1600NoLoad</t>
+  </si>
+  <si>
+    <t>T83Ten3RPM800HighLoad</t>
+  </si>
+  <si>
+    <t>T84Ten3RPM800LowLoad</t>
+  </si>
+  <si>
+    <t>T85Ten3RPM800NoLoad</t>
+  </si>
+  <si>
+    <t>T86Ten4RPM1600HighLoad</t>
+  </si>
+  <si>
+    <t>T87Ten4RPM1600LowLoad</t>
+  </si>
+  <si>
+    <t>T88Ten4RPM1600NoLoad</t>
+  </si>
+  <si>
+    <t>T89Ten4RPM800HighLoad</t>
+  </si>
+  <si>
+    <t>T90Ten4RPM800LowLoad</t>
+  </si>
+  <si>
+    <t>T91Ten4RPM800NoLoad</t>
+  </si>
+  <si>
+    <t>T92Ten5RPM1600HighLoad</t>
+  </si>
+  <si>
+    <t>T93Ten5RPM1600LowLoad</t>
+  </si>
+  <si>
+    <t>T94Ten5RPM1600NoLoad</t>
+  </si>
+  <si>
+    <t>T95Ten5RPM800HighLoad</t>
+  </si>
+  <si>
+    <t>T96Ten5RPM800LowLoad</t>
+  </si>
+  <si>
+    <t>T97Ten5RPM800NoLoad</t>
+  </si>
+  <si>
+    <t>Cond fan 730RPM, long test for temperature convergence, something around 1hz on belt frequency, 53hz VFD</t>
+  </si>
+  <si>
+    <t>15 seconds from last test, down to low load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 sec from last, pulley temp increases but only due to less air flow </t>
+  </si>
+  <si>
+    <t>810, comp on at 25 sec, stable pressure at 8, running until 10</t>
+  </si>
+  <si>
+    <t>15 from previous test, SS pressure at 6, running until 8</t>
+  </si>
+  <si>
+    <t>15 from previous, from 2 to 4</t>
+  </si>
+  <si>
+    <t>T75Ten2RPM1600LowLoad</t>
+  </si>
+  <si>
+    <t>2 turns down, pressure SS from 6 to 8</t>
+  </si>
+  <si>
+    <t>15 from previous, pressure SS from3 to 5 , 1546 RPM cond fan</t>
+  </si>
+  <si>
+    <t>15 from prev from 2 to 4</t>
+  </si>
+  <si>
+    <t>15 from previous, new rpm at 30 and comp on, SS pressure at 5 to 7</t>
+  </si>
+  <si>
+    <t>15 from previous, SS pressure 4 to 6</t>
+  </si>
+  <si>
+    <t>15 from prev. 2-4</t>
+  </si>
+  <si>
+    <t>down 4 turns,ramp up, comp on at 32, fan speed same, SS from 9 to 11</t>
+  </si>
+  <si>
+    <t>down at 15, SS pressure from 4 to 6</t>
+  </si>
+  <si>
+    <t>15 from prev, comp off after 17, from 2 to 4</t>
+  </si>
+  <si>
+    <t>ramp down 13, comp on 30, SS from 5:30 to 7:30</t>
+  </si>
+  <si>
+    <t>21 from previous, SS from 2 to 4</t>
+  </si>
+  <si>
+    <t>T86AccMotorNoBelt</t>
+  </si>
+  <si>
+    <t>15 turns up, Various speed with motor disconnected from compressor and pulley system, start from 2 min, motor RPM, Accelerometer okey</t>
   </si>
 </sst>
 </file>
@@ -1611,6 +1832,828 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C0EA6F-BF46-4DB1-8DA7-8C5497715456}">
+  <dimension ref="A1:S37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.21875" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>200</v>
+      </c>
+      <c r="O3">
+        <v>79</v>
+      </c>
+      <c r="P3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5">
+        <v>54</v>
+      </c>
+      <c r="M5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+      <c r="M9">
+        <v>310</v>
+      </c>
+      <c r="P9">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>276</v>
+      </c>
+      <c r="M11">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>281</v>
+      </c>
+      <c r="N17">
+        <v>260</v>
+      </c>
+      <c r="O17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>283</v>
+      </c>
+      <c r="L20">
+        <v>48</v>
+      </c>
+      <c r="M20">
+        <v>180</v>
+      </c>
+      <c r="P20">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B21">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <v>198</v>
+      </c>
+      <c r="O27">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B29">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>289</v>
+      </c>
+      <c r="M29">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>259</v>
+      </c>
+      <c r="B30">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>260</v>
+      </c>
+      <c r="B31">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B35">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>294</v>
+      </c>
+      <c r="B37">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E939A97-44AF-4685-A249-2413A9AEB269}">
+  <dimension ref="A1:T34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1">
+        <v>1600</v>
+      </c>
+      <c r="C1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2">
+        <v>1600</v>
+      </c>
+      <c r="C2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3">
+        <v>1600</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3">
+        <f>300</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4">
+        <v>800</v>
+      </c>
+      <c r="C4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <f>30</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5">
+        <v>800</v>
+      </c>
+      <c r="C5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6">
+        <v>800</v>
+      </c>
+      <c r="C6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>1600</v>
+      </c>
+      <c r="C8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>1600</v>
+      </c>
+      <c r="C9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" t="s">
+        <v>244</v>
+      </c>
+      <c r="T9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1600</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="T10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>800</v>
+      </c>
+      <c r="C11" t="s">
+        <v>236</v>
+      </c>
+      <c r="T11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>800</v>
+      </c>
+      <c r="C12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>800</v>
+      </c>
+      <c r="C13" t="s">
+        <v>239</v>
+      </c>
+      <c r="T13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15">
+        <v>1600</v>
+      </c>
+      <c r="C15" t="s">
+        <v>236</v>
+      </c>
+      <c r="T15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16">
+        <v>1600</v>
+      </c>
+      <c r="C16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17">
+        <v>1600</v>
+      </c>
+      <c r="C17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18">
+        <v>800</v>
+      </c>
+      <c r="C18" t="s">
+        <v>236</v>
+      </c>
+      <c r="T18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19">
+        <v>800</v>
+      </c>
+      <c r="C19" t="s">
+        <v>238</v>
+      </c>
+      <c r="T19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20">
+        <v>800</v>
+      </c>
+      <c r="C20" t="s">
+        <v>239</v>
+      </c>
+      <c r="T20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22">
+        <v>1600</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
+      <c r="T22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23">
+        <v>1600</v>
+      </c>
+      <c r="C23" t="s">
+        <v>238</v>
+      </c>
+      <c r="T23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24">
+        <v>1600</v>
+      </c>
+      <c r="C24" t="s">
+        <v>239</v>
+      </c>
+      <c r="T24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25">
+        <v>800</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26">
+        <v>800</v>
+      </c>
+      <c r="C26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27">
+        <v>800</v>
+      </c>
+      <c r="C27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29">
+        <v>1600</v>
+      </c>
+      <c r="C29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30">
+        <v>1600</v>
+      </c>
+      <c r="C30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31">
+        <v>1600</v>
+      </c>
+      <c r="C31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32">
+        <v>800</v>
+      </c>
+      <c r="C32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33">
+        <v>800</v>
+      </c>
+      <c r="C33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34">
+        <v>800</v>
+      </c>
+      <c r="C34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB3C77A-A86C-41CC-8808-23B3DAFB340B}">
   <dimension ref="B5:E8"/>
   <sheetViews>
@@ -1833,7 +2876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ADE930-95F2-4FE7-8425-1D0ED343DBA9}">
   <dimension ref="B2:V61"/>
   <sheetViews>
-    <sheetView topLeftCell="E21" workbookViewId="0">
+    <sheetView topLeftCell="E17" workbookViewId="0">
       <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
@@ -3886,8 +4929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFF44D6-F28F-416F-BD0F-FE0907501C17}">
   <dimension ref="A3:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4971,8 +6014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873E6657-E81F-4447-8DBE-8CA74E72B38B}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test_sheet.xlsx
+++ b/Test_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Thesis\MT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A16D8CE-0E61-4480-BF44-20030420507B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB07797-013F-442B-93CF-E2DB6A65E2F4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="5" activeTab="9" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="4" activeTab="9" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="2" r:id="rId1"/>
@@ -19,12 +19,14 @@
     <sheet name="Tests 2018-04-24" sheetId="3" r:id="rId4"/>
     <sheet name="Tests 2018-04-26" sheetId="5" r:id="rId5"/>
     <sheet name="Tests 2018-04-27" sheetId="6" r:id="rId6"/>
-    <sheet name="Test 2018-05-01" sheetId="8" r:id="rId7"/>
-    <sheet name="Test2018-05-03" sheetId="9" r:id="rId8"/>
-    <sheet name="Test2018-05-09" sheetId="10" r:id="rId9"/>
-    <sheet name="Test2018-05-15" sheetId="11" r:id="rId10"/>
-    <sheet name="Blad2" sheetId="12" r:id="rId11"/>
-    <sheet name="Changes to rig and DAQ" sheetId="7" r:id="rId12"/>
+    <sheet name="Blad3" sheetId="14" r:id="rId7"/>
+    <sheet name="Test 2018-05-01" sheetId="8" r:id="rId8"/>
+    <sheet name="Test2018-05-03" sheetId="9" r:id="rId9"/>
+    <sheet name="Test2018-05-09" sheetId="10" r:id="rId10"/>
+    <sheet name="Test2018-05-15" sheetId="11" r:id="rId11"/>
+    <sheet name="Blad1" sheetId="13" r:id="rId12"/>
+    <sheet name="Blad2" sheetId="12" r:id="rId13"/>
+    <sheet name="Changes to rig and DAQ" sheetId="7" r:id="rId14"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="333">
   <si>
     <t>Sheet for entering test data</t>
   </si>
@@ -923,7 +925,118 @@
     <t>T86AccMotorNoBelt</t>
   </si>
   <si>
-    <t>15 turns up, Various speed with motor disconnected from compressor and pulley system, start from 2 min, motor RPM, Accelerometer okey</t>
+    <t>15 turns up, Various speed with motor disconnected from compressor and pulley system, start from 2 min, motor RPM, Accelerometer okey, cable in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laser </t>
+  </si>
+  <si>
+    <t>1200 rpm</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>8.32</t>
+  </si>
+  <si>
+    <t>16.35</t>
+  </si>
+  <si>
+    <t>Accz</t>
+  </si>
+  <si>
+    <t>40.4</t>
+  </si>
+  <si>
+    <t>59.9</t>
+  </si>
+  <si>
+    <t>79.4</t>
+  </si>
+  <si>
+    <t>storlek</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>0.05-0.15</t>
+  </si>
+  <si>
+    <t>första multiplen av remmen</t>
+  </si>
+  <si>
+    <t>3e multiplen av hastigheten, med rem</t>
+  </si>
+  <si>
+    <t>Utan rem inget bidrag,  bra balanserad</t>
+  </si>
+  <si>
+    <t>T74</t>
+  </si>
+  <si>
+    <t>40.34</t>
+  </si>
+  <si>
+    <t>T79</t>
+  </si>
+  <si>
+    <t>40.39</t>
+  </si>
+  <si>
+    <t>T81</t>
+  </si>
+  <si>
+    <t>78.18</t>
+  </si>
+  <si>
+    <t>T69</t>
+  </si>
+  <si>
+    <t>78.11</t>
+  </si>
+  <si>
+    <t>T68</t>
+  </si>
+  <si>
+    <t>77.73</t>
+  </si>
+  <si>
+    <t>T85</t>
+  </si>
+  <si>
+    <t>40.42</t>
+  </si>
+  <si>
+    <t>(39.67)</t>
+  </si>
+  <si>
+    <t>0.1168</t>
+  </si>
+  <si>
+    <t>0.06427</t>
+  </si>
+  <si>
+    <t>T73</t>
+  </si>
+  <si>
+    <t>40.37</t>
+  </si>
+  <si>
+    <t>39.39</t>
+  </si>
+  <si>
+    <t>0.04241</t>
+  </si>
+  <si>
+    <t>0.1023</t>
+  </si>
+  <si>
+    <t>Low tension</t>
+  </si>
+  <si>
+    <t>High tension</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1653,7 @@
   <dimension ref="A3:E26"/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1832,11 +1945,558 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873E6657-E81F-4447-8DBE-8CA74E72B38B}">
+  <dimension ref="A1:R44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3">
+        <v>150</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M4">
+        <v>150</v>
+      </c>
+      <c r="N4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>205</v>
+      </c>
+      <c r="M6">
+        <v>300</v>
+      </c>
+      <c r="Q6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7">
+        <v>300</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="M9">
+        <v>250</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="M10">
+        <v>250</v>
+      </c>
+      <c r="Q10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="M12">
+        <v>220</v>
+      </c>
+      <c r="Q12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+      <c r="M13">
+        <v>220</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+      <c r="M15">
+        <v>190</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>199</v>
+      </c>
+      <c r="M16">
+        <v>190</v>
+      </c>
+      <c r="Q16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
+      <c r="M18">
+        <v>165</v>
+      </c>
+      <c r="Q18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19">
+        <v>165</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21">
+        <v>140</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22">
+        <v>140</v>
+      </c>
+      <c r="Q22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>206</v>
+      </c>
+      <c r="M26">
+        <v>110</v>
+      </c>
+      <c r="Q26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27">
+        <v>110</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>212</v>
+      </c>
+      <c r="M29">
+        <v>85</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>208</v>
+      </c>
+      <c r="M30">
+        <v>85</v>
+      </c>
+      <c r="Q30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>210</v>
+      </c>
+      <c r="M32">
+        <v>70</v>
+      </c>
+      <c r="Q32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>215</v>
+      </c>
+      <c r="M33">
+        <v>70</v>
+      </c>
+      <c r="Q33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>211</v>
+      </c>
+      <c r="M35">
+        <v>45</v>
+      </c>
+      <c r="Q35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>213</v>
+      </c>
+      <c r="M36">
+        <v>45</v>
+      </c>
+      <c r="Q36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>210</v>
+      </c>
+      <c r="M38" t="s">
+        <v>214</v>
+      </c>
+      <c r="O38">
+        <v>55</v>
+      </c>
+      <c r="Q38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>215</v>
+      </c>
+      <c r="M39" t="s">
+        <v>214</v>
+      </c>
+      <c r="O39">
+        <v>55</v>
+      </c>
+      <c r="Q39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>216</v>
+      </c>
+      <c r="M41" t="s">
+        <v>214</v>
+      </c>
+      <c r="O41">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>219</v>
+      </c>
+      <c r="M42" t="s">
+        <v>214</v>
+      </c>
+      <c r="O42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>218</v>
+      </c>
+      <c r="M43">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>222</v>
+      </c>
+      <c r="M44">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C0EA6F-BF46-4DB1-8DA7-8C5497715456}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2230,7 +2890,169 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345B7335-9F55-4144-89F5-D0DF162CA6B6}">
+  <dimension ref="D6:U22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H6" t="s">
+        <v>309</v>
+      </c>
+      <c r="L6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H9" t="s">
+        <v>302</v>
+      </c>
+      <c r="O9" t="s">
+        <v>311</v>
+      </c>
+      <c r="P9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>313</v>
+      </c>
+      <c r="R9" t="s">
+        <v>314</v>
+      </c>
+      <c r="S9" t="s">
+        <v>321</v>
+      </c>
+      <c r="T9" t="s">
+        <v>322</v>
+      </c>
+      <c r="U9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" t="s">
+        <v>300</v>
+      </c>
+      <c r="H11" t="s">
+        <v>304</v>
+      </c>
+      <c r="O11" t="s">
+        <v>315</v>
+      </c>
+      <c r="P11" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>317</v>
+      </c>
+      <c r="R11" t="s">
+        <v>318</v>
+      </c>
+      <c r="S11" t="s">
+        <v>319</v>
+      </c>
+      <c r="T11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13" t="s">
+        <v>306</v>
+      </c>
+      <c r="H13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="15:19" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>321</v>
+      </c>
+      <c r="P20" t="s">
+        <v>331</v>
+      </c>
+      <c r="R20" t="s">
+        <v>326</v>
+      </c>
+      <c r="S20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="15:19" x14ac:dyDescent="0.3">
+      <c r="O21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P21" t="s">
+        <v>323</v>
+      </c>
+      <c r="R21" t="s">
+        <v>327</v>
+      </c>
+      <c r="S21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="15:19" x14ac:dyDescent="0.3">
+      <c r="O22" t="s">
+        <v>324</v>
+      </c>
+      <c r="P22" t="s">
+        <v>325</v>
+      </c>
+      <c r="R22" t="s">
+        <v>330</v>
+      </c>
+      <c r="S22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E939A97-44AF-4685-A249-2413A9AEB269}">
   <dimension ref="A1:T34"/>
   <sheetViews>
@@ -2653,7 +3475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB3C77A-A86C-41CC-8808-23B3DAFB340B}">
   <dimension ref="B5:E8"/>
   <sheetViews>
@@ -5438,6 +6260,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9171600F-54C3-4629-A495-45EF1A01E741}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F287F0B2-5D14-41E7-B422-A81EE9AA7853}">
   <dimension ref="A2:T17"/>
   <sheetViews>
@@ -5716,7 +6550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A4769B-1852-45AE-9057-B8B9331FA4B4}">
   <dimension ref="A1:R18"/>
   <sheetViews>
@@ -6008,551 +6842,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873E6657-E81F-4447-8DBE-8CA74E72B38B}">
-  <dimension ref="A1:R44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:R1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="M3">
-        <v>150</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>170</v>
-      </c>
-      <c r="M4">
-        <v>150</v>
-      </c>
-      <c r="N4">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>205</v>
-      </c>
-      <c r="M6">
-        <v>300</v>
-      </c>
-      <c r="Q6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M7">
-        <v>300</v>
-      </c>
-      <c r="Q7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>172</v>
-      </c>
-      <c r="M9">
-        <v>250</v>
-      </c>
-      <c r="Q9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>175</v>
-      </c>
-      <c r="M10">
-        <v>250</v>
-      </c>
-      <c r="Q10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>173</v>
-      </c>
-      <c r="M12">
-        <v>220</v>
-      </c>
-      <c r="Q12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>174</v>
-      </c>
-      <c r="M13">
-        <v>220</v>
-      </c>
-      <c r="Q13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>198</v>
-      </c>
-      <c r="M15">
-        <v>190</v>
-      </c>
-      <c r="Q15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>199</v>
-      </c>
-      <c r="M16">
-        <v>190</v>
-      </c>
-      <c r="Q16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B18">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>200</v>
-      </c>
-      <c r="M18">
-        <v>165</v>
-      </c>
-      <c r="Q18">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>201</v>
-      </c>
-      <c r="M19">
-        <v>165</v>
-      </c>
-      <c r="Q19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>186</v>
-      </c>
-      <c r="B21">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>202</v>
-      </c>
-      <c r="M21">
-        <v>140</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>203</v>
-      </c>
-      <c r="M22">
-        <v>140</v>
-      </c>
-      <c r="Q22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>206</v>
-      </c>
-      <c r="M26">
-        <v>110</v>
-      </c>
-      <c r="Q26">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>207</v>
-      </c>
-      <c r="M27">
-        <v>110</v>
-      </c>
-      <c r="Q27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>190</v>
-      </c>
-      <c r="B29">
-        <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>212</v>
-      </c>
-      <c r="M29">
-        <v>85</v>
-      </c>
-      <c r="Q29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>191</v>
-      </c>
-      <c r="B30">
-        <v>51</v>
-      </c>
-      <c r="C30" t="s">
-        <v>208</v>
-      </c>
-      <c r="M30">
-        <v>85</v>
-      </c>
-      <c r="Q30">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>192</v>
-      </c>
-      <c r="B32">
-        <v>52</v>
-      </c>
-      <c r="C32" t="s">
-        <v>210</v>
-      </c>
-      <c r="M32">
-        <v>70</v>
-      </c>
-      <c r="Q32">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33">
-        <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>215</v>
-      </c>
-      <c r="M33">
-        <v>70</v>
-      </c>
-      <c r="Q33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35">
-        <v>54</v>
-      </c>
-      <c r="C35" t="s">
-        <v>211</v>
-      </c>
-      <c r="M35">
-        <v>45</v>
-      </c>
-      <c r="Q35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36">
-        <v>55</v>
-      </c>
-      <c r="C36" t="s">
-        <v>213</v>
-      </c>
-      <c r="M36">
-        <v>45</v>
-      </c>
-      <c r="Q36">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>196</v>
-      </c>
-      <c r="B38">
-        <v>56</v>
-      </c>
-      <c r="C38" t="s">
-        <v>210</v>
-      </c>
-      <c r="M38" t="s">
-        <v>214</v>
-      </c>
-      <c r="O38">
-        <v>55</v>
-      </c>
-      <c r="Q38">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>197</v>
-      </c>
-      <c r="B39">
-        <v>57</v>
-      </c>
-      <c r="C39" t="s">
-        <v>215</v>
-      </c>
-      <c r="M39" t="s">
-        <v>214</v>
-      </c>
-      <c r="O39">
-        <v>55</v>
-      </c>
-      <c r="Q39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>209</v>
-      </c>
-      <c r="B41">
-        <v>58</v>
-      </c>
-      <c r="C41" t="s">
-        <v>216</v>
-      </c>
-      <c r="M41" t="s">
-        <v>214</v>
-      </c>
-      <c r="O41">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>217</v>
-      </c>
-      <c r="B42">
-        <v>59</v>
-      </c>
-      <c r="C42" t="s">
-        <v>219</v>
-      </c>
-      <c r="M42" t="s">
-        <v>214</v>
-      </c>
-      <c r="O42">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>221</v>
-      </c>
-      <c r="B43">
-        <v>60</v>
-      </c>
-      <c r="C43" t="s">
-        <v>218</v>
-      </c>
-      <c r="M43">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>220</v>
-      </c>
-      <c r="B44">
-        <v>61</v>
-      </c>
-      <c r="C44" t="s">
-        <v>222</v>
-      </c>
-      <c r="M44">
-        <v>290</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Test_sheet.xlsx
+++ b/Test_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Thesis\MT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB07797-013F-442B-93CF-E2DB6A65E2F4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1A8302-B027-4C81-A01E-4383A9C1F0B5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="4" activeTab="9" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="875" firstSheet="6" activeTab="16" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="2" r:id="rId1"/>
@@ -22,11 +22,14 @@
     <sheet name="Blad3" sheetId="14" r:id="rId7"/>
     <sheet name="Test 2018-05-01" sheetId="8" r:id="rId8"/>
     <sheet name="Test2018-05-03" sheetId="9" r:id="rId9"/>
-    <sheet name="Test2018-05-09" sheetId="10" r:id="rId10"/>
-    <sheet name="Test2018-05-15" sheetId="11" r:id="rId11"/>
-    <sheet name="Blad1" sheetId="13" r:id="rId12"/>
-    <sheet name="Blad2" sheetId="12" r:id="rId13"/>
-    <sheet name="Changes to rig and DAQ" sheetId="7" r:id="rId14"/>
+    <sheet name="Test2018-05-29" sheetId="15" r:id="rId10"/>
+    <sheet name="Test2018-05-09" sheetId="10" r:id="rId11"/>
+    <sheet name="Test2018-06-04" sheetId="16" r:id="rId12"/>
+    <sheet name="Test2018-05-15" sheetId="11" r:id="rId13"/>
+    <sheet name="Blad1" sheetId="13" r:id="rId14"/>
+    <sheet name="Blad2" sheetId="12" r:id="rId15"/>
+    <sheet name="Changes to rig and DAQ" sheetId="7" r:id="rId16"/>
+    <sheet name="2018-06-05" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="415">
   <si>
     <t>Sheet for entering test data</t>
   </si>
@@ -1037,6 +1040,252 @@
   </si>
   <si>
     <t>High tension</t>
+  </si>
+  <si>
+    <t>T87Warmup</t>
+  </si>
+  <si>
+    <t>T87</t>
+  </si>
+  <si>
+    <t>T88</t>
+  </si>
+  <si>
+    <t>T88T300BeltVib</t>
+  </si>
+  <si>
+    <t>Up 7 turns, finding where belt vibrates at most</t>
+  </si>
+  <si>
+    <t>T90T200BeltVib</t>
+  </si>
+  <si>
+    <t>T89</t>
+  </si>
+  <si>
+    <t>T90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">down 3 turns, </t>
+  </si>
+  <si>
+    <t>turn compressor on and off multiple times, 47hz fan</t>
+  </si>
+  <si>
+    <t>T91T200ONOFF</t>
+  </si>
+  <si>
+    <t>T91</t>
+  </si>
+  <si>
+    <t>ON OFF MULTIPLE TIMES</t>
+  </si>
+  <si>
+    <t>T92</t>
+  </si>
+  <si>
+    <t>2 down</t>
+  </si>
+  <si>
+    <t>T89T300ONOFF</t>
+  </si>
+  <si>
+    <t>T92T140BeltVib</t>
+  </si>
+  <si>
+    <t>T93</t>
+  </si>
+  <si>
+    <t>T93T140ONOFF</t>
+  </si>
+  <si>
+    <t>T94</t>
+  </si>
+  <si>
+    <t>on off 4 times</t>
+  </si>
+  <si>
+    <t>T94T110BeltVib</t>
+  </si>
+  <si>
+    <t>1,5 down , finding vibrations</t>
+  </si>
+  <si>
+    <t>T95T110ONOFF</t>
+  </si>
+  <si>
+    <t>T95</t>
+  </si>
+  <si>
+    <t>T96</t>
+  </si>
+  <si>
+    <t>1,5 down</t>
+  </si>
+  <si>
+    <t>T96T80BeltVib</t>
+  </si>
+  <si>
+    <t>T97T80ONOFF</t>
+  </si>
+  <si>
+    <t>T97</t>
+  </si>
+  <si>
+    <t>onoff 4 times 250-175 pressure</t>
+  </si>
+  <si>
+    <t>T98</t>
+  </si>
+  <si>
+    <t>T98T50BeltVib</t>
+  </si>
+  <si>
+    <t>T99</t>
+  </si>
+  <si>
+    <t>T99T50ONOFF</t>
+  </si>
+  <si>
+    <t>T100</t>
+  </si>
+  <si>
+    <t>T100Experiment</t>
+  </si>
+  <si>
+    <t>T101</t>
+  </si>
+  <si>
+    <t>T101T20</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>running, compressor sensor not working, ok after 7:34</t>
+  </si>
+  <si>
+    <t>T102</t>
+  </si>
+  <si>
+    <t>2:31 changed summation time, 06:50 introducing outliers with phone, load 8:50</t>
+  </si>
+  <si>
+    <t>T103</t>
+  </si>
+  <si>
+    <t>loads on off on different speed and pressure</t>
+  </si>
+  <si>
+    <t>T104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal tension, 7 turns up, </t>
+  </si>
+  <si>
+    <t>T105</t>
+  </si>
+  <si>
+    <t>T106</t>
+  </si>
+  <si>
+    <t>ramp down, testing frequency noise in temperature sensors</t>
+  </si>
+  <si>
+    <t>slightly higher tension, 2 turns</t>
+  </si>
+  <si>
+    <t>T107</t>
+  </si>
+  <si>
+    <t>4 down , similar tests</t>
+  </si>
+  <si>
+    <t>T108</t>
+  </si>
+  <si>
+    <t>first test, comp rpm not working properly, ALL 1HZ IS NOW 10HZ</t>
+  </si>
+  <si>
+    <t>T109</t>
+  </si>
+  <si>
+    <t>up one ,similar</t>
+  </si>
+  <si>
+    <t>T110</t>
+  </si>
+  <si>
+    <t>up 2,5 1300 rpm</t>
+  </si>
+  <si>
+    <t>T111</t>
+  </si>
+  <si>
+    <t>added water on motor side, dry shortly after</t>
+  </si>
+  <si>
+    <t>13 down , changed to a new fault induced belt, 4x2 ribs almost removed, 13 up, down 2</t>
+  </si>
+  <si>
+    <t>175-180</t>
+  </si>
+  <si>
+    <t>T112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170 from before, retension up 1,5 to 170 again(?), </t>
+  </si>
+  <si>
+    <t>T113</t>
+  </si>
+  <si>
+    <t>introduced cracks on outer side, approx 4-5 cm</t>
+  </si>
+  <si>
+    <t>T114</t>
+  </si>
+  <si>
+    <t>added oil on motor belt, same testing as in previous degredation</t>
+  </si>
+  <si>
+    <t>Warmup</t>
+  </si>
+  <si>
+    <t>15 up , changed belts, 15 down, warming up the belts</t>
+  </si>
+  <si>
+    <t>Baseline before adjusting misalignment 810,1020, 1200,1410,1590, 1800</t>
+  </si>
+  <si>
+    <t>T115_Ten180_Ramp</t>
+  </si>
+  <si>
+    <t>T116_Ten210_Aligned</t>
+  </si>
+  <si>
+    <t>Aligned  motor and tensioner pulley</t>
+  </si>
+  <si>
+    <t>T117_Ten180_Ramp</t>
+  </si>
+  <si>
+    <t>T118_Ten200_810RPM</t>
+  </si>
+  <si>
+    <t>moved motot which increased tension</t>
+  </si>
+  <si>
+    <t>retension and ramp</t>
   </si>
 </sst>
 </file>
@@ -1945,11 +2194,244 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B283B9B3-91D8-4E95-86EB-3E082003BD12}">
+  <dimension ref="A1:R30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" t="s">
+        <v>334</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" t="s">
+        <v>337</v>
+      </c>
+      <c r="M4">
+        <v>310</v>
+      </c>
+      <c r="O4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" t="s">
+        <v>342</v>
+      </c>
+      <c r="R6">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" t="s">
+        <v>345</v>
+      </c>
+      <c r="R10">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>354</v>
+      </c>
+      <c r="B16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>356</v>
+      </c>
+      <c r="B18" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>360</v>
+      </c>
+      <c r="B20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" t="s">
+        <v>359</v>
+      </c>
+      <c r="M20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>361</v>
+      </c>
+      <c r="B22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" t="s">
+        <v>364</v>
+      </c>
+      <c r="C24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>367</v>
+      </c>
+      <c r="B26" t="s">
+        <v>366</v>
+      </c>
+      <c r="C26" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>369</v>
+      </c>
+      <c r="B28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B30" t="s">
+        <v>370</v>
+      </c>
+      <c r="C30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873E6657-E81F-4447-8DBE-8CA74E72B38B}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2491,18 +2973,248 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB438C5-2193-43A0-B89E-06AE52C0C7FF}">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" t="s">
+        <v>390</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" t="s">
+        <v>375</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" t="s">
+        <v>376</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" t="s">
+        <v>378</v>
+      </c>
+      <c r="L6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" t="s">
+        <v>382</v>
+      </c>
+      <c r="L8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" t="s">
+        <v>386</v>
+      </c>
+      <c r="L10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B11" t="s">
+        <v>388</v>
+      </c>
+      <c r="L11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B12" t="s">
+        <v>392</v>
+      </c>
+      <c r="L12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13" t="s">
+        <v>394</v>
+      </c>
+      <c r="L13">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B14" t="s">
+        <v>396</v>
+      </c>
+      <c r="L14">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B15" t="s">
+        <v>397</v>
+      </c>
+      <c r="L15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>399</v>
+      </c>
+      <c r="B16" t="s">
+        <v>400</v>
+      </c>
+      <c r="L16">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B17" t="s">
+        <v>402</v>
+      </c>
+      <c r="L17">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B18" t="s">
+        <v>404</v>
+      </c>
+      <c r="L18">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C0EA6F-BF46-4DB1-8DA7-8C5497715456}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.21875" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="3.44140625" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2890,7 +3602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345B7335-9F55-4144-89F5-D0DF162CA6B6}">
   <dimension ref="D6:U22"/>
   <sheetViews>
@@ -3052,7 +3764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E939A97-44AF-4685-A249-2413A9AEB269}">
   <dimension ref="A1:T34"/>
   <sheetViews>
@@ -3475,12 +4187,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB3C77A-A86C-41CC-8808-23B3DAFB340B}">
   <dimension ref="B5:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3524,6 +4236,119 @@
       </c>
       <c r="E8" t="s">
         <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4AF7FA-A6F3-4D01-AB42-2B1D537DBE0F}">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" t="s">
+        <v>406</v>
+      </c>
+      <c r="L2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" t="s">
+        <v>407</v>
+      </c>
+      <c r="L3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" t="s">
+        <v>410</v>
+      </c>
+      <c r="L4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5" t="s">
+        <v>414</v>
+      </c>
+      <c r="L5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" t="s">
+        <v>413</v>
+      </c>
+      <c r="L6">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3698,7 +4523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ADE930-95F2-4FE7-8425-1D0ED343DBA9}">
   <dimension ref="B2:V61"/>
   <sheetViews>
-    <sheetView topLeftCell="E17" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
@@ -5751,8 +6576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFF44D6-F28F-416F-BD0F-FE0907501C17}">
   <dimension ref="A3:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5960,7 +6785,7 @@
   <dimension ref="B3:U21"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5969,6 +6794,7 @@
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58" customWidth="1"/>
     <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -6263,7 +7089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9171600F-54C3-4629-A495-45EF1A01E741}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -6275,8 +7103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F287F0B2-5D14-41E7-B422-A81EE9AA7853}">
   <dimension ref="A2:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6555,7 +7383,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test_sheet.xlsx
+++ b/Test_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Thesis\MT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1A8302-B027-4C81-A01E-4383A9C1F0B5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D96783-8E4C-47A6-9D12-508877B10A31}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="875" firstSheet="6" activeTab="16" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="875" firstSheet="7" activeTab="10" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="2" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="Blad2" sheetId="12" r:id="rId15"/>
     <sheet name="Changes to rig and DAQ" sheetId="7" r:id="rId16"/>
     <sheet name="2018-06-05" sheetId="17" r:id="rId17"/>
+    <sheet name="2018-06-08" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="439">
   <si>
     <t>Sheet for entering test data</t>
   </si>
@@ -1276,16 +1277,88 @@
     <t>Aligned  motor and tensioner pulley</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>T117_Ten180_Ramp</t>
   </si>
   <si>
     <t>T118_Ten200_810RPM</t>
   </si>
   <si>
-    <t>moved motot which increased tension</t>
-  </si>
-  <si>
     <t>retension and ramp</t>
+  </si>
+  <si>
+    <t>moved motor which increased tension</t>
+  </si>
+  <si>
+    <t>idle2</t>
+  </si>
+  <si>
+    <t>190 tension, moving belt a bit rpm&lt;90</t>
+  </si>
+  <si>
+    <t>190 tension, cool down</t>
+  </si>
+  <si>
+    <t>T119_warmup</t>
+  </si>
+  <si>
+    <t>T120_cooldown</t>
+  </si>
+  <si>
+    <t>T121</t>
+  </si>
+  <si>
+    <t>down to 0 rpm, 4 min for drive pulley to reach running temp again, increased 2 degrees, compressor 5 min to reach running temp from up 3 deg, starting again at pulleytemp 42 deg</t>
+  </si>
+  <si>
+    <t>190 tension, running 1590rpm warming up without comp. Doors opened at 17:00, temp 48.5,46,40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T121 lower tension(100), first cooldown and change of tension to 100, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">from pulley 42 up to 44.5 steady state, disturbances from change of tension, </t>
+  </si>
+  <si>
+    <t>ramp up at 09:43</t>
+  </si>
+  <si>
+    <t>T122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T122 lowest tension(75), 20 sec from previous, ramp down change tension, </t>
+  </si>
+  <si>
+    <t>at 03:22 ramp up from 42deg surface, steady state at 42.3</t>
+  </si>
+  <si>
+    <t>T123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T123 lower than lowest(50), 20 sec from previous, ramp down changed tension, </t>
+  </si>
+  <si>
+    <t>started at 03:35 from 40.5 to 40</t>
+  </si>
+  <si>
+    <t>T124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T124 Highest tension(300), 21 from previous, from steady state 39.8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">temp in comp pulley 42.75, 38 in motor pulley, 40 ten pulley, </t>
+  </si>
+  <si>
+    <t>starting at 4:06, 35drive,38tensioner,40comp, stady state 45drive,55ten,52comp</t>
+  </si>
+  <si>
+    <t>T125</t>
+  </si>
+  <si>
+    <t>T125 same tension 1600rpm,1200 rpm at (?), 800rpm at 10:10, 0 at 30:35</t>
   </si>
 </sst>
 </file>
@@ -2197,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B283B9B3-91D8-4E95-86EB-3E082003BD12}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2430,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873E6657-E81F-4447-8DBE-8CA74E72B38B}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2978,7 +3051,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3206,8 +3279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C0EA6F-BF46-4DB1-8DA7-8C5497715456}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4247,7 +4320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4AF7FA-A6F3-4D01-AB42-2B1D537DBE0F}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4331,7 +4404,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B5" t="s">
         <v>414</v>
@@ -4342,13 +4415,133 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B6" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L6">
         <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF5B19B-28DE-4B2E-AB3D-8089BD040B04}">
+  <dimension ref="A3:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10" t="s">
+        <v>428</v>
+      </c>
+      <c r="K10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>433</v>
+      </c>
+      <c r="C14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>437</v>
+      </c>
+      <c r="C17" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -6785,7 +6978,7 @@
   <dimension ref="B3:U21"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test_sheet.xlsx
+++ b/Test_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Thesis\MT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D96783-8E4C-47A6-9D12-508877B10A31}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE6DF0A-8CF2-4FA4-9E7A-F9070EB38C7C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="875" firstSheet="7" activeTab="10" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="875" firstSheet="5" activeTab="9" xr2:uid="{C499E39D-B800-4351-BD6B-5EA9E2F500E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="2" r:id="rId1"/>
@@ -24,8 +24,8 @@
     <sheet name="Test2018-05-03" sheetId="9" r:id="rId9"/>
     <sheet name="Test2018-05-29" sheetId="15" r:id="rId10"/>
     <sheet name="Test2018-05-09" sheetId="10" r:id="rId11"/>
-    <sheet name="Test2018-06-04" sheetId="16" r:id="rId12"/>
-    <sheet name="Test2018-05-15" sheetId="11" r:id="rId13"/>
+    <sheet name="Test2018-05-15" sheetId="11" r:id="rId12"/>
+    <sheet name="Test2018-06-04" sheetId="16" r:id="rId13"/>
     <sheet name="Blad1" sheetId="13" r:id="rId14"/>
     <sheet name="Blad2" sheetId="12" r:id="rId15"/>
     <sheet name="Changes to rig and DAQ" sheetId="7" r:id="rId16"/>
@@ -2270,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B283B9B3-91D8-4E95-86EB-3E082003BD12}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2503,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873E6657-E81F-4447-8DBE-8CA74E72B38B}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3047,240 +3047,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB438C5-2193-43A0-B89E-06AE52C0C7FF}">
-  <dimension ref="A1:R18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="L1" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="O1" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="P1" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>373</v>
-      </c>
-      <c r="B3" t="s">
-        <v>375</v>
-      </c>
-      <c r="L3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B4" t="s">
-        <v>376</v>
-      </c>
-      <c r="L4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B6" t="s">
-        <v>378</v>
-      </c>
-      <c r="L6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>381</v>
-      </c>
-      <c r="B8" t="s">
-        <v>382</v>
-      </c>
-      <c r="L8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>383</v>
-      </c>
-      <c r="B9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>384</v>
-      </c>
-      <c r="B10" t="s">
-        <v>386</v>
-      </c>
-      <c r="L10">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>387</v>
-      </c>
-      <c r="B11" t="s">
-        <v>388</v>
-      </c>
-      <c r="L11">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>389</v>
-      </c>
-      <c r="B12" t="s">
-        <v>392</v>
-      </c>
-      <c r="L12">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>391</v>
-      </c>
-      <c r="B13" t="s">
-        <v>394</v>
-      </c>
-      <c r="L13">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>393</v>
-      </c>
-      <c r="B14" t="s">
-        <v>396</v>
-      </c>
-      <c r="L14">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>395</v>
-      </c>
-      <c r="B15" t="s">
-        <v>397</v>
-      </c>
-      <c r="L15" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>399</v>
-      </c>
-      <c r="B16" t="s">
-        <v>400</v>
-      </c>
-      <c r="L16">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>401</v>
-      </c>
-      <c r="B17" t="s">
-        <v>402</v>
-      </c>
-      <c r="L17">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>403</v>
-      </c>
-      <c r="B18" t="s">
-        <v>404</v>
-      </c>
-      <c r="L18">
-        <v>185</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C0EA6F-BF46-4DB1-8DA7-8C5497715456}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3672,6 +3443,235 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB438C5-2193-43A0-B89E-06AE52C0C7FF}">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" t="s">
+        <v>390</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" t="s">
+        <v>375</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" t="s">
+        <v>376</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" t="s">
+        <v>378</v>
+      </c>
+      <c r="L6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" t="s">
+        <v>382</v>
+      </c>
+      <c r="L8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" t="s">
+        <v>386</v>
+      </c>
+      <c r="L10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B11" t="s">
+        <v>388</v>
+      </c>
+      <c r="L11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B12" t="s">
+        <v>392</v>
+      </c>
+      <c r="L12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13" t="s">
+        <v>394</v>
+      </c>
+      <c r="L13">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B14" t="s">
+        <v>396</v>
+      </c>
+      <c r="L14">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B15" t="s">
+        <v>397</v>
+      </c>
+      <c r="L15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>399</v>
+      </c>
+      <c r="B16" t="s">
+        <v>400</v>
+      </c>
+      <c r="L16">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B17" t="s">
+        <v>402</v>
+      </c>
+      <c r="L17">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B18" t="s">
+        <v>404</v>
+      </c>
+      <c r="L18">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4434,7 +4434,7 @@
   <dimension ref="A3:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
